--- a/results_analysis/spark_motorFailure_02_hold_02.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2941B30-E817-4C33-B371-B401F4686D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75998BAC-C040-4EB3-995D-1C05E133FAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="734" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_best" sheetId="11" r:id="rId1"/>
@@ -24,17 +24,28 @@
     <sheet name="v1_v2_best" sheetId="13" r:id="rId9"/>
     <sheet name="Comp" sheetId="14" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="38">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -137,6 +148,18 @@
   <si>
     <t>ACC - MEAN - DM</t>
   </si>
+  <si>
+    <t>Comparison: Sparsification Method</t>
+  </si>
+  <si>
+    <t>Comparison: Design Method</t>
+  </si>
+  <si>
+    <t>Comparison: NN x KNN</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,18 +203,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -546,11 +563,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,12 +739,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -828,25 +921,70 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -862,33 +1000,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1200,19 +1311,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1281,7 +1392,7 @@
       <c r="J5" s="12">
         <v>0.67763157894736903</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="35">
         <v>0.94078947368421095</v>
       </c>
     </row>
@@ -1410,7 +1521,7 @@
       <c r="J9" s="22">
         <v>0.93421052631579005</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="67">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -1668,7 +1779,7 @@
       <c r="J17" s="22">
         <v>0.73026315789473695</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="67">
         <v>0.92763157894736903</v>
       </c>
     </row>
@@ -2367,13 +2478,13 @@
       <c r="O6" s="1">
         <v>1</v>
       </c>
-      <c r="P6" s="96">
+      <c r="P6" s="94">
         <v>0.78947368421052599</v>
       </c>
-      <c r="Q6" s="97">
+      <c r="Q6" s="95">
         <v>0.93421052631579005</v>
       </c>
-      <c r="R6" s="97">
+      <c r="R6" s="95">
         <v>0.90789473684210498</v>
       </c>
       <c r="S6" s="15">
@@ -2382,13 +2493,13 @@
       <c r="T6" s="15">
         <v>0.95394736842105299</v>
       </c>
-      <c r="U6" s="97">
+      <c r="U6" s="95">
         <v>0.94736842105263197</v>
       </c>
-      <c r="V6" s="97">
+      <c r="V6" s="95">
         <v>0.77631578947368396</v>
       </c>
-      <c r="W6" s="98">
+      <c r="W6" s="96">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -2398,16 +2509,16 @@
       <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="93">
+      <c r="D7" s="91">
         <v>0.80263157894736903</v>
       </c>
-      <c r="E7" s="94">
+      <c r="E7" s="92">
         <v>0.95394736842105299</v>
       </c>
       <c r="F7" s="19">
         <v>0.83552631578947401</v>
       </c>
-      <c r="G7" s="94">
+      <c r="G7" s="92">
         <v>0.96052631578947401</v>
       </c>
       <c r="H7" s="19">
@@ -2416,10 +2527,10 @@
       <c r="I7" s="19">
         <v>0.93421052631579005</v>
       </c>
-      <c r="J7" s="94">
+      <c r="J7" s="92">
         <v>0.71710526315789502</v>
       </c>
-      <c r="K7" s="95">
+      <c r="K7" s="93">
         <v>0.97368421052631604</v>
       </c>
       <c r="M7" s="5"/>
@@ -2427,7 +2538,7 @@
       <c r="O7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="93">
+      <c r="P7" s="91">
         <v>0.80263157894736903</v>
       </c>
       <c r="Q7" s="19">
@@ -2483,7 +2594,7 @@
       <c r="J8" s="22">
         <v>0.93421052631579005</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="67">
         <v>0.94736842105263197</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -2516,7 +2627,7 @@
       <c r="V8" s="22">
         <v>0.93421052631579005</v>
       </c>
-      <c r="W8" s="69">
+      <c r="W8" s="67">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -2526,19 +2637,19 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="94">
         <v>0.94736842105263197</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="95">
         <v>0.99342105263157898</v>
       </c>
       <c r="F9" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="G9" s="97">
+      <c r="G9" s="95">
         <v>0.96710526315789502</v>
       </c>
-      <c r="H9" s="97">
+      <c r="H9" s="95">
         <v>0.99342105263157898</v>
       </c>
       <c r="I9" s="15">
@@ -2547,7 +2658,7 @@
       <c r="J9" s="15">
         <v>0.90789473684210498</v>
       </c>
-      <c r="K9" s="98">
+      <c r="K9" s="96">
         <v>0.99342105263157898</v>
       </c>
       <c r="M9" s="4"/>
@@ -2622,25 +2733,25 @@
       <c r="P10" s="14">
         <v>0.86842105263157898</v>
       </c>
-      <c r="Q10" s="97">
+      <c r="Q10" s="95">
         <v>0.91447368421052599</v>
       </c>
       <c r="R10" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="S10" s="97">
+      <c r="S10" s="95">
         <v>0.97368421052631604</v>
       </c>
       <c r="T10" s="15">
         <v>0.94736842105263197</v>
       </c>
-      <c r="U10" s="97">
+      <c r="U10" s="95">
         <v>0.65789473684210498</v>
       </c>
       <c r="V10" s="15">
         <v>0.88815789473684204</v>
       </c>
-      <c r="W10" s="98">
+      <c r="W10" s="96">
         <v>0.96710526315789502</v>
       </c>
     </row>
@@ -2650,10 +2761,10 @@
       <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="91">
         <v>0.94078947368421095</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="92">
         <v>0.99342105263157898</v>
       </c>
       <c r="F11" s="19">
@@ -2662,16 +2773,16 @@
       <c r="G11" s="19">
         <v>0.95394736842105299</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="92">
         <v>1</v>
       </c>
       <c r="I11" s="19">
         <v>0.63815789473684204</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="92">
         <v>0.94078947368421095</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="93">
         <v>0.97368421052631604</v>
       </c>
       <c r="M11" s="5"/>
@@ -2679,7 +2790,7 @@
       <c r="O11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="93">
+      <c r="P11" s="91">
         <v>0.94078947368421095</v>
       </c>
       <c r="Q11" s="19">
@@ -2691,16 +2802,16 @@
       <c r="S11" s="19">
         <v>0.95394736842105299</v>
       </c>
-      <c r="T11" s="94">
-        <v>1</v>
-      </c>
-      <c r="U11" s="94">
+      <c r="T11" s="92">
+        <v>1</v>
+      </c>
+      <c r="U11" s="92">
         <v>0.63815789473684204</v>
       </c>
-      <c r="V11" s="94">
+      <c r="V11" s="92">
         <v>0.94078947368421095</v>
       </c>
-      <c r="W11" s="95">
+      <c r="W11" s="93">
         <v>0.97368421052631604</v>
       </c>
     </row>
@@ -2735,7 +2846,7 @@
       <c r="J12" s="22">
         <v>0.94078947368421095</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="67">
         <v>0.93421052631579005</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -2768,7 +2879,7 @@
       <c r="V12" s="22">
         <v>0.94078947368421095</v>
       </c>
-      <c r="W12" s="69">
+      <c r="W12" s="67">
         <v>0.93421052631579005</v>
       </c>
     </row>
@@ -2778,28 +2889,28 @@
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="96">
+      <c r="D13" s="94">
         <v>0.91447368421052599</v>
       </c>
-      <c r="E13" s="97">
+      <c r="E13" s="95">
         <v>1</v>
       </c>
       <c r="F13" s="15">
         <v>0.91447368421052599</v>
       </c>
-      <c r="G13" s="97">
-        <v>1</v>
-      </c>
-      <c r="H13" s="97">
+      <c r="G13" s="95">
+        <v>1</v>
+      </c>
+      <c r="H13" s="95">
         <v>0.96710526315789502</v>
       </c>
-      <c r="I13" s="97">
+      <c r="I13" s="95">
         <v>0.95394736842105299</v>
       </c>
       <c r="J13" s="15">
         <v>0.85526315789473695</v>
       </c>
-      <c r="K13" s="98">
+      <c r="K13" s="96">
         <v>1</v>
       </c>
       <c r="M13" s="4"/>
@@ -2871,7 +2982,7 @@
       <c r="O14" s="1">
         <v>1</v>
       </c>
-      <c r="P14" s="96">
+      <c r="P14" s="94">
         <v>0.92763157894736903</v>
       </c>
       <c r="Q14" s="15">
@@ -2880,10 +2991,10 @@
       <c r="R14" s="15">
         <v>0.92763157894736903</v>
       </c>
-      <c r="S14" s="97">
+      <c r="S14" s="95">
         <v>0.96052631578947401</v>
       </c>
-      <c r="T14" s="97">
+      <c r="T14" s="95">
         <v>0.94078947368421095</v>
       </c>
       <c r="U14" s="15">
@@ -2905,25 +3016,25 @@
       <c r="D15" s="18">
         <v>0.91447368421052599</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="92">
         <v>1</v>
       </c>
       <c r="F15" s="19">
         <v>0.92105263157894701</v>
       </c>
-      <c r="G15" s="94">
-        <v>1</v>
-      </c>
-      <c r="H15" s="94">
+      <c r="G15" s="92">
+        <v>1</v>
+      </c>
+      <c r="H15" s="92">
         <v>0.96710526315789502</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I15" s="92">
         <v>0.96052631578947401</v>
       </c>
       <c r="J15" s="19">
         <v>0.89473684210526305</v>
       </c>
-      <c r="K15" s="95">
+      <c r="K15" s="93">
         <v>1</v>
       </c>
       <c r="M15" s="5"/>
@@ -2937,7 +3048,7 @@
       <c r="Q15" s="19">
         <v>1</v>
       </c>
-      <c r="R15" s="94">
+      <c r="R15" s="92">
         <v>0.92105263157894701</v>
       </c>
       <c r="S15" s="19">
@@ -2946,10 +3057,10 @@
       <c r="T15" s="19">
         <v>0.96710526315789502</v>
       </c>
-      <c r="U15" s="94">
+      <c r="U15" s="92">
         <v>0.96052631578947401</v>
       </c>
-      <c r="V15" s="94">
+      <c r="V15" s="92">
         <v>0.89473684210526305</v>
       </c>
       <c r="W15" s="26">
@@ -2987,7 +3098,7 @@
       <c r="J16" s="22">
         <v>0.73026315789473695</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="67">
         <v>0.92763157894736903</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -3020,7 +3131,7 @@
       <c r="V16" s="22">
         <v>0.73026315789473695</v>
       </c>
-      <c r="W16" s="69">
+      <c r="W16" s="67">
         <v>0.92763157894736903</v>
       </c>
     </row>
@@ -3033,16 +3144,16 @@
       <c r="D17" s="14">
         <v>0.71710526315789502</v>
       </c>
-      <c r="E17" s="97">
+      <c r="E17" s="95">
         <v>1</v>
       </c>
       <c r="F17" s="15">
         <v>0.82236842105263197</v>
       </c>
-      <c r="G17" s="97">
-        <v>1</v>
-      </c>
-      <c r="H17" s="97">
+      <c r="G17" s="95">
+        <v>1</v>
+      </c>
+      <c r="H17" s="95">
         <v>0.98684210526315796</v>
       </c>
       <c r="I17" s="15">
@@ -3051,7 +3162,7 @@
       <c r="J17" s="15">
         <v>0.75657894736842102</v>
       </c>
-      <c r="K17" s="98">
+      <c r="K17" s="96">
         <v>0.96710526315789502</v>
       </c>
       <c r="M17" s="4"/>
@@ -3123,7 +3234,7 @@
       <c r="O18" s="1">
         <v>1</v>
       </c>
-      <c r="P18" s="96">
+      <c r="P18" s="94">
         <v>0.77631578947368396</v>
       </c>
       <c r="Q18" s="15">
@@ -3135,16 +3246,16 @@
       <c r="S18" s="15">
         <v>0.94078947368421095</v>
       </c>
-      <c r="T18" s="97">
+      <c r="T18" s="95">
         <v>0.96052631578947401</v>
       </c>
       <c r="U18" s="15">
         <v>0.94078947368421095</v>
       </c>
-      <c r="V18" s="97">
+      <c r="V18" s="95">
         <v>0.73684210526315796</v>
       </c>
-      <c r="W18" s="98">
+      <c r="W18" s="96">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -3157,25 +3268,25 @@
       <c r="D19" s="18">
         <v>0.76973684210526305</v>
       </c>
-      <c r="E19" s="94">
-        <v>1</v>
-      </c>
-      <c r="F19" s="94">
+      <c r="E19" s="92">
+        <v>1</v>
+      </c>
+      <c r="F19" s="92">
         <v>0.90131578947368396</v>
       </c>
       <c r="G19" s="19">
         <v>0.93421052631579005</v>
       </c>
-      <c r="H19" s="94">
+      <c r="H19" s="92">
         <v>0.98684210526315796</v>
       </c>
-      <c r="I19" s="94">
+      <c r="I19" s="92">
         <v>0.94736842105263197</v>
       </c>
-      <c r="J19" s="94">
+      <c r="J19" s="92">
         <v>0.76315789473684204</v>
       </c>
-      <c r="K19" s="95">
+      <c r="K19" s="93">
         <v>1</v>
       </c>
       <c r="M19" s="5"/>
@@ -3183,13 +3294,13 @@
       <c r="O19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P19" s="93">
+      <c r="P19" s="91">
         <v>0.76973684210526305</v>
       </c>
       <c r="Q19" s="19">
         <v>1</v>
       </c>
-      <c r="R19" s="94">
+      <c r="R19" s="92">
         <v>0.90131578947368396</v>
       </c>
       <c r="S19" s="19">
@@ -3198,13 +3309,13 @@
       <c r="T19" s="19">
         <v>0.98684210526315796</v>
       </c>
-      <c r="U19" s="94">
+      <c r="U19" s="92">
         <v>0.94736842105263197</v>
       </c>
-      <c r="V19" s="94">
+      <c r="V19" s="92">
         <v>0.76315789473684204</v>
       </c>
-      <c r="W19" s="95">
+      <c r="W19" s="93">
         <v>1</v>
       </c>
     </row>
@@ -3361,7 +3472,7 @@
       <c r="D24" s="14">
         <v>0.63289473684210495</v>
       </c>
-      <c r="E24" s="97">
+      <c r="E24" s="95">
         <v>0.80197368421052595</v>
       </c>
       <c r="F24" s="15">
@@ -3376,10 +3487,10 @@
       <c r="I24" s="15">
         <v>0.82039473684210495</v>
       </c>
-      <c r="J24" s="97">
+      <c r="J24" s="95">
         <v>0.64407894736842097</v>
       </c>
-      <c r="K24" s="98">
+      <c r="K24" s="96">
         <v>0.82499999999999996</v>
       </c>
       <c r="M24" s="4"/>
@@ -3451,13 +3562,13 @@
       <c r="O25" s="1">
         <v>1</v>
       </c>
-      <c r="P25" s="96">
+      <c r="P25" s="94">
         <v>0.70855263157894699</v>
       </c>
-      <c r="Q25" s="97">
+      <c r="Q25" s="95">
         <v>0.78881578947368403</v>
       </c>
-      <c r="R25" s="97">
+      <c r="R25" s="95">
         <v>0.78355263157894695</v>
       </c>
       <c r="S25" s="15">
@@ -3469,10 +3580,10 @@
       <c r="U25" s="15">
         <v>0.85526315789473695</v>
       </c>
-      <c r="V25" s="97">
+      <c r="V25" s="95">
         <v>0.67960526315789505</v>
       </c>
-      <c r="W25" s="98">
+      <c r="W25" s="96">
         <v>0.81118421052631595</v>
       </c>
     </row>
@@ -3485,13 +3596,13 @@
       <c r="D26" s="18">
         <v>0.68947368421052602</v>
       </c>
-      <c r="E26" s="94">
+      <c r="E26" s="92">
         <v>0.80394736842105297</v>
       </c>
       <c r="F26" s="19">
         <v>0.74473684210526303</v>
       </c>
-      <c r="G26" s="94">
+      <c r="G26" s="92">
         <v>0.88815789473684204</v>
       </c>
       <c r="H26" s="19">
@@ -3503,7 +3614,7 @@
       <c r="J26" s="19">
         <v>0.65526315789473699</v>
       </c>
-      <c r="K26" s="95">
+      <c r="K26" s="93">
         <v>0.85263157894736796</v>
       </c>
       <c r="M26" s="5"/>
@@ -3511,16 +3622,16 @@
       <c r="O26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="93">
+      <c r="P26" s="91">
         <v>0.68947368421052602</v>
       </c>
-      <c r="Q26" s="94">
+      <c r="Q26" s="92">
         <v>0.80394736842105297</v>
       </c>
-      <c r="R26" s="94">
+      <c r="R26" s="92">
         <v>0.74473684210526303</v>
       </c>
-      <c r="S26" s="94">
+      <c r="S26" s="92">
         <v>0.88815789473684204</v>
       </c>
       <c r="T26" s="19">
@@ -3529,10 +3640,10 @@
       <c r="U26" s="19">
         <v>0.75526315789473697</v>
       </c>
-      <c r="V26" s="94">
+      <c r="V26" s="92">
         <v>0.65526315789473699</v>
       </c>
-      <c r="W26" s="95">
+      <c r="W26" s="93">
         <v>0.85263157894736796</v>
       </c>
     </row>
@@ -3567,7 +3678,7 @@
       <c r="J27" s="22">
         <v>0.79605263157894701</v>
       </c>
-      <c r="K27" s="69">
+      <c r="K27" s="67">
         <v>0.89144736842105299</v>
       </c>
       <c r="M27" s="2" t="s">
@@ -3600,7 +3711,7 @@
       <c r="V27" s="22">
         <v>0.79605263157894701</v>
       </c>
-      <c r="W27" s="69">
+      <c r="W27" s="67">
         <v>0.89144736842105299</v>
       </c>
     </row>
@@ -3613,16 +3724,16 @@
       <c r="D28" s="14">
         <v>0.75789473684210495</v>
       </c>
-      <c r="E28" s="97">
+      <c r="E28" s="95">
         <v>0.84276315789473699</v>
       </c>
       <c r="F28" s="15">
         <v>0.72368421052631604</v>
       </c>
-      <c r="G28" s="97">
+      <c r="G28" s="95">
         <v>0.87763157894736898</v>
       </c>
-      <c r="H28" s="97">
+      <c r="H28" s="95">
         <v>0.955921052631579</v>
       </c>
       <c r="I28" s="15">
@@ -3703,10 +3814,10 @@
       <c r="O29" s="1">
         <v>1</v>
       </c>
-      <c r="P29" s="96">
+      <c r="P29" s="94">
         <v>0.82302631578947405</v>
       </c>
-      <c r="Q29" s="97">
+      <c r="Q29" s="95">
         <v>0.75</v>
       </c>
       <c r="R29" s="15">
@@ -3718,7 +3829,7 @@
       <c r="T29" s="15">
         <v>0.88947368421052597</v>
       </c>
-      <c r="U29" s="97">
+      <c r="U29" s="95">
         <v>0.51315789473684204</v>
       </c>
       <c r="V29" s="15">
@@ -3737,25 +3848,25 @@
       <c r="D30" s="18">
         <v>0.76249999999999996</v>
       </c>
-      <c r="E30" s="94">
+      <c r="E30" s="92">
         <v>0.82960526315789496</v>
       </c>
       <c r="F30" s="19">
         <v>0.73421052631578998</v>
       </c>
-      <c r="G30" s="94">
+      <c r="G30" s="92">
         <v>0.85131578947368403</v>
       </c>
-      <c r="H30" s="94">
+      <c r="H30" s="92">
         <v>0.91710526315789498</v>
       </c>
       <c r="I30" s="19">
         <v>0.51118421052631602</v>
       </c>
-      <c r="J30" s="94">
+      <c r="J30" s="92">
         <v>0.74934210526315803</v>
       </c>
-      <c r="K30" s="95">
+      <c r="K30" s="93">
         <v>0.86315789473684201</v>
       </c>
       <c r="M30" s="5"/>
@@ -3763,13 +3874,13 @@
       <c r="O30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P30" s="93">
+      <c r="P30" s="91">
         <v>0.76249999999999996</v>
       </c>
       <c r="Q30" s="19">
         <v>0.82960526315789496</v>
       </c>
-      <c r="R30" s="94">
+      <c r="R30" s="92">
         <v>0.73421052631578998</v>
       </c>
       <c r="S30" s="19">
@@ -3778,10 +3889,10 @@
       <c r="T30" s="19">
         <v>0.91710526315789498</v>
       </c>
-      <c r="U30" s="94">
+      <c r="U30" s="92">
         <v>0.51118421052631602</v>
       </c>
-      <c r="V30" s="94">
+      <c r="V30" s="92">
         <v>0.74934210526315803</v>
       </c>
       <c r="W30" s="26">
@@ -3819,7 +3930,7 @@
       <c r="J31" s="22">
         <v>0.86052631578947403</v>
       </c>
-      <c r="K31" s="69">
+      <c r="K31" s="67">
         <v>0.888815789473684</v>
       </c>
       <c r="M31" s="2" t="s">
@@ -3852,7 +3963,7 @@
       <c r="V31" s="22">
         <v>0.86052631578947403</v>
       </c>
-      <c r="W31" s="69">
+      <c r="W31" s="67">
         <v>0.888815789473684</v>
       </c>
     </row>
@@ -3862,28 +3973,28 @@
       <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="96">
+      <c r="D32" s="94">
         <v>0.88026315789473697</v>
       </c>
-      <c r="E32" s="97">
+      <c r="E32" s="95">
         <v>0.99407894736842095</v>
       </c>
       <c r="F32" s="15">
         <v>0.879605263157895</v>
       </c>
-      <c r="G32" s="97">
+      <c r="G32" s="95">
         <v>0.99934210526315803</v>
       </c>
-      <c r="H32" s="97">
+      <c r="H32" s="95">
         <v>0.91249999999999998</v>
       </c>
-      <c r="I32" s="97">
+      <c r="I32" s="95">
         <v>0.91710526315789498</v>
       </c>
       <c r="J32" s="15">
         <v>0.8</v>
       </c>
-      <c r="K32" s="98">
+      <c r="K32" s="96">
         <v>0.94802631578947405</v>
       </c>
       <c r="M32" s="4"/>
@@ -3955,22 +4066,22 @@
       <c r="O33" s="1">
         <v>1</v>
       </c>
-      <c r="P33" s="96">
+      <c r="P33" s="94">
         <v>0.89736842105263204</v>
       </c>
       <c r="Q33" s="15">
         <v>0.88355263157894803</v>
       </c>
-      <c r="R33" s="97">
+      <c r="R33" s="95">
         <v>0.884210526315789</v>
       </c>
-      <c r="S33" s="97">
+      <c r="S33" s="95">
         <v>0.88618421052631602</v>
       </c>
       <c r="T33" s="15">
         <v>0.88815789473684204</v>
       </c>
-      <c r="U33" s="97">
+      <c r="U33" s="95">
         <v>0.888815789473684</v>
       </c>
       <c r="V33" s="15">
@@ -3989,25 +4100,25 @@
       <c r="D34" s="18">
         <v>0.87631578947368405</v>
       </c>
-      <c r="E34" s="94">
+      <c r="E34" s="92">
         <v>0.99802631578947398</v>
       </c>
-      <c r="F34" s="94">
+      <c r="F34" s="92">
         <v>0.89210526315789496</v>
       </c>
-      <c r="G34" s="94">
+      <c r="G34" s="92">
         <v>0.99276315789473701</v>
       </c>
-      <c r="H34" s="94">
+      <c r="H34" s="92">
         <v>0.89013157894736905</v>
       </c>
-      <c r="I34" s="94">
+      <c r="I34" s="92">
         <v>0.92960526315789505</v>
       </c>
       <c r="J34" s="19">
         <v>0.78421052631579002</v>
       </c>
-      <c r="K34" s="95">
+      <c r="K34" s="93">
         <v>0.95855263157894699</v>
       </c>
       <c r="M34" s="5"/>
@@ -4018,10 +4129,10 @@
       <c r="P34" s="18">
         <v>0.87631578947368405</v>
       </c>
-      <c r="Q34" s="94">
+      <c r="Q34" s="92">
         <v>0.99802631578947398</v>
       </c>
-      <c r="R34" s="94">
+      <c r="R34" s="92">
         <v>0.89210526315789496</v>
       </c>
       <c r="S34" s="19">
@@ -4030,13 +4141,13 @@
       <c r="T34" s="19">
         <v>0.89013157894736905</v>
       </c>
-      <c r="U34" s="94">
+      <c r="U34" s="92">
         <v>0.92960526315789505</v>
       </c>
       <c r="V34" s="19">
         <v>0.78421052631579002</v>
       </c>
-      <c r="W34" s="95">
+      <c r="W34" s="93">
         <v>0.95855263157894699</v>
       </c>
     </row>
@@ -4071,7 +4182,7 @@
       <c r="J35" s="22">
         <v>0.68026315789473701</v>
       </c>
-      <c r="K35" s="69">
+      <c r="K35" s="67">
         <v>0.740789473684211</v>
       </c>
       <c r="M35" s="4" t="s">
@@ -4104,7 +4215,7 @@
       <c r="V35" s="22">
         <v>0.68026315789473701</v>
       </c>
-      <c r="W35" s="69">
+      <c r="W35" s="67">
         <v>0.740789473684211</v>
       </c>
     </row>
@@ -4114,10 +4225,10 @@
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="96">
+      <c r="D36" s="94">
         <v>0.68092105263157898</v>
       </c>
-      <c r="E36" s="97">
+      <c r="E36" s="95">
         <v>0.90197368421052604</v>
       </c>
       <c r="F36" s="15">
@@ -4126,16 +4237,16 @@
       <c r="G36" s="15">
         <v>0.92236842105263195</v>
       </c>
-      <c r="H36" s="97">
+      <c r="H36" s="95">
         <v>0.94539473684210495</v>
       </c>
-      <c r="I36" s="97">
+      <c r="I36" s="95">
         <v>0.85197368421052599</v>
       </c>
       <c r="J36" s="15">
         <v>0.64473684210526305</v>
       </c>
-      <c r="K36" s="98">
+      <c r="K36" s="96">
         <v>0.91973684210526296</v>
       </c>
       <c r="M36" s="4"/>
@@ -4207,13 +4318,13 @@
       <c r="O37" s="1">
         <v>1</v>
       </c>
-      <c r="P37" s="96">
+      <c r="P37" s="94">
         <v>0.71447368421052604</v>
       </c>
       <c r="Q37" s="15">
         <v>0.77434210526315805</v>
       </c>
-      <c r="R37" s="97">
+      <c r="R37" s="95">
         <v>0.78092105263157896</v>
       </c>
       <c r="S37" s="15">
@@ -4225,10 +4336,10 @@
       <c r="U37" s="15">
         <v>0.79342105263157903</v>
       </c>
-      <c r="V37" s="97">
+      <c r="V37" s="95">
         <v>0.68947368421052602</v>
       </c>
-      <c r="W37" s="98">
+      <c r="W37" s="96">
         <v>0.79605263157894701</v>
       </c>
     </row>
@@ -4241,25 +4352,25 @@
       <c r="D38" s="18">
         <v>0.70197368421052597</v>
       </c>
-      <c r="E38" s="94">
+      <c r="E38" s="92">
         <v>0.92302631578947403</v>
       </c>
-      <c r="F38" s="94">
+      <c r="F38" s="92">
         <v>0.78157894736842104</v>
       </c>
-      <c r="G38" s="94">
+      <c r="G38" s="92">
         <v>0.90394736842105305</v>
       </c>
-      <c r="H38" s="94">
+      <c r="H38" s="92">
         <v>0.95657894736842097</v>
       </c>
-      <c r="I38" s="94">
+      <c r="I38" s="92">
         <v>0.80921052631578905</v>
       </c>
       <c r="J38" s="19">
         <v>0.68684210526315803</v>
       </c>
-      <c r="K38" s="95">
+      <c r="K38" s="93">
         <v>0.89736842105263204</v>
       </c>
       <c r="M38" s="5"/>
@@ -4267,25 +4378,25 @@
       <c r="O38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P38" s="93">
+      <c r="P38" s="91">
         <v>0.70197368421052597</v>
       </c>
-      <c r="Q38" s="94">
+      <c r="Q38" s="92">
         <v>0.92302631578947403</v>
       </c>
-      <c r="R38" s="94">
+      <c r="R38" s="92">
         <v>0.78157894736842104</v>
       </c>
       <c r="S38" s="19">
         <v>0.90394736842105305</v>
       </c>
-      <c r="T38" s="94">
+      <c r="T38" s="92">
         <v>0.95657894736842097</v>
       </c>
       <c r="U38" s="19">
         <v>0.80921052631578905</v>
       </c>
-      <c r="V38" s="94">
+      <c r="V38" s="92">
         <v>0.68684210526315803</v>
       </c>
       <c r="W38" s="26">
@@ -4304,43 +4415,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="J21" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24:W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
+      <c r="M3" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="112"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4374,8 +4516,41 @@
       <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -4394,13 +4569,13 @@
       <c r="F5" s="12">
         <v>0.71118421052631597</v>
       </c>
-      <c r="G5" s="110">
+      <c r="G5" s="98">
         <v>0.85065789473684195</v>
       </c>
-      <c r="H5" s="110">
+      <c r="H5" s="98">
         <v>0.87565789473684197</v>
       </c>
-      <c r="I5" s="110">
+      <c r="I5" s="98">
         <v>0.87236842105263201</v>
       </c>
       <c r="J5" s="12">
@@ -4409,8 +4584,49 @@
       <c r="K5" s="30">
         <v>0.78092105263157896</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="28">
+        <f t="shared" ref="P5:W8" si="0">D5-MAX(D5,D9,D13,D17)</f>
+        <v>-0.173684210526316</v>
+      </c>
+      <c r="Q5" s="28">
+        <f t="shared" si="0"/>
+        <v>-0.15789473684210509</v>
+      </c>
+      <c r="R5" s="28">
+        <f t="shared" si="0"/>
+        <v>-0.17105263157894701</v>
+      </c>
+      <c r="S5" s="28">
+        <f t="shared" si="0"/>
+        <v>-8.6184210526316085E-2</v>
+      </c>
+      <c r="T5" s="28">
+        <f t="shared" si="0"/>
+        <v>-3.157894736842104E-2</v>
+      </c>
+      <c r="U5" s="28">
+        <f t="shared" si="0"/>
+        <v>-8.5526315789470342E-3</v>
+      </c>
+      <c r="V5" s="28">
+        <f t="shared" si="0"/>
+        <v>-0.24868421052631606</v>
+      </c>
+      <c r="W5" s="106">
+        <f t="shared" si="0"/>
+        <v>-0.11052631578947403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -4424,10 +4640,10 @@
       <c r="F6" s="15">
         <v>0.70657894736842097</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G6" s="99">
         <v>0.84934210526315801</v>
       </c>
-      <c r="H6" s="109">
+      <c r="H6" s="99">
         <v>0.86315789473684201</v>
       </c>
       <c r="I6" s="15">
@@ -4436,11 +4652,48 @@
       <c r="J6" s="15">
         <v>0.64407894736842097</v>
       </c>
-      <c r="K6" s="111">
+      <c r="K6" s="100">
         <v>0.82499999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="4"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.24736842105263201</v>
+      </c>
+      <c r="Q6" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.192105263157895</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.17302631578947403</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="T6" s="14">
+        <f t="shared" si="0"/>
+        <v>-9.2763157894736992E-2</v>
+      </c>
+      <c r="U6" s="14">
+        <f t="shared" si="0"/>
+        <v>-9.6710526315790024E-2</v>
+      </c>
+      <c r="V6" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.15592105263157907</v>
+      </c>
+      <c r="W6" s="107">
+        <f t="shared" si="0"/>
+        <v>-0.12302631578947409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -4457,23 +4710,62 @@
       <c r="F7" s="15">
         <v>0.78355263157894695</v>
       </c>
-      <c r="G7" s="109">
+      <c r="G7" s="99">
         <v>0.83223684210526305</v>
       </c>
-      <c r="H7" s="109">
+      <c r="H7" s="99">
         <v>0.861184210526316</v>
       </c>
-      <c r="I7" s="109">
+      <c r="I7" s="99">
         <v>0.85526315789473695</v>
       </c>
       <c r="J7" s="15">
         <v>0.67960526315789505</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="25">
         <v>0.81118421052631595</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="4"/>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.18881578947368505</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" si="0"/>
+        <v>-9.4736842105264008E-2</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.10065789473684206</v>
+      </c>
+      <c r="S7" s="14">
+        <f t="shared" si="0"/>
+        <v>-6.5789473684210953E-2</v>
+      </c>
+      <c r="T7" s="14">
+        <f t="shared" si="0"/>
+        <v>-2.8289473684209976E-2</v>
+      </c>
+      <c r="U7" s="14">
+        <f t="shared" si="0"/>
+        <v>-3.3552631578947056E-2</v>
+      </c>
+      <c r="V7" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.17631578947368398</v>
+      </c>
+      <c r="W7" s="107">
+        <f t="shared" si="0"/>
+        <v>-7.4342105263158098E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -4482,16 +4774,16 @@
       <c r="D8" s="18">
         <v>0.68947368421052602</v>
       </c>
-      <c r="E8" s="106">
+      <c r="E8" s="101">
         <v>0.80394736842105297</v>
       </c>
       <c r="F8" s="19">
         <v>0.74473684210526303</v>
       </c>
-      <c r="G8" s="106">
+      <c r="G8" s="101">
         <v>0.88815789473684204</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="19">
         <v>0.79671052631578898</v>
       </c>
       <c r="I8" s="19">
@@ -4500,11 +4792,48 @@
       <c r="J8" s="19">
         <v>0.65526315789473699</v>
       </c>
-      <c r="K8" s="112">
+      <c r="K8" s="102">
         <v>0.85263157894736796</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="18">
+        <f t="shared" si="0"/>
+        <v>-0.18684210526315803</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" si="0"/>
+        <v>-0.19407894736842102</v>
+      </c>
+      <c r="R8" s="18">
+        <f t="shared" si="0"/>
+        <v>-0.14736842105263193</v>
+      </c>
+      <c r="S8" s="18">
+        <f t="shared" si="0"/>
+        <v>-0.10460526315789498</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" si="0"/>
+        <v>-0.15986842105263199</v>
+      </c>
+      <c r="U8" s="18">
+        <f t="shared" si="0"/>
+        <v>-0.17434210526315808</v>
+      </c>
+      <c r="V8" s="18">
+        <f t="shared" si="0"/>
+        <v>-0.12894736842105303</v>
+      </c>
+      <c r="W8" s="108">
+        <f t="shared" si="0"/>
+        <v>-0.10592105263157903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -4523,10 +4852,10 @@
       <c r="F9" s="22">
         <v>0.84342105263157896</v>
       </c>
-      <c r="G9" s="108">
+      <c r="G9" s="103">
         <v>0.86447368421052595</v>
       </c>
-      <c r="H9" s="108">
+      <c r="H9" s="103">
         <v>0.90723684210526301</v>
       </c>
       <c r="I9" s="22">
@@ -4535,11 +4864,52 @@
       <c r="J9" s="22">
         <v>0.79605263157894701</v>
       </c>
-      <c r="K9" s="113">
+      <c r="K9" s="104">
         <v>0.89144736842105299</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="28">
+        <f t="shared" ref="P9:W12" si="1">D9-MAX(D5,D9,D13,D17)</f>
+        <v>-9.9342105263158009E-2</v>
+      </c>
+      <c r="Q9" s="28">
+        <f t="shared" si="1"/>
+        <v>-0.15855263157894706</v>
+      </c>
+      <c r="R9" s="28">
+        <f t="shared" si="1"/>
+        <v>-3.8815789473684026E-2</v>
+      </c>
+      <c r="S9" s="28">
+        <f t="shared" si="1"/>
+        <v>-7.2368421052632081E-2</v>
+      </c>
+      <c r="T9" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="28">
+        <f t="shared" si="1"/>
+        <v>-0.38092105263157905</v>
+      </c>
+      <c r="V9" s="28">
+        <f t="shared" si="1"/>
+        <v>-6.4473684210527016E-2</v>
+      </c>
+      <c r="W9" s="106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -4553,10 +4923,10 @@
       <c r="F10" s="15">
         <v>0.72368421052631604</v>
       </c>
-      <c r="G10" s="109">
+      <c r="G10" s="99">
         <v>0.87763157894736898</v>
       </c>
-      <c r="H10" s="109">
+      <c r="H10" s="99">
         <v>0.955921052631579</v>
       </c>
       <c r="I10" s="15">
@@ -4565,11 +4935,48 @@
       <c r="J10" s="15">
         <v>0.72499999999999998</v>
       </c>
-      <c r="K10" s="111">
+      <c r="K10" s="100">
         <v>0.893421052631579</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="4"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.12236842105263201</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.15131578947368396</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.15592105263157896</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.12171052631578905</v>
+      </c>
+      <c r="T10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.41710526315789498</v>
+      </c>
+      <c r="V10" s="14">
+        <f t="shared" si="1"/>
+        <v>-7.5000000000000067E-2</v>
+      </c>
+      <c r="W10" s="107">
+        <f t="shared" si="1"/>
+        <v>-5.4605263157895045E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -4586,10 +4993,10 @@
       <c r="F11" s="15">
         <v>0.78355263157894695</v>
       </c>
-      <c r="G11" s="109">
+      <c r="G11" s="99">
         <v>0.84276315789473699</v>
       </c>
-      <c r="H11" s="109">
+      <c r="H11" s="99">
         <v>0.88947368421052597</v>
       </c>
       <c r="I11" s="15">
@@ -4598,11 +5005,50 @@
       <c r="J11" s="15">
         <v>0.74671052631579005</v>
       </c>
-      <c r="K11" s="111">
+      <c r="K11" s="100">
         <v>0.79802631578947403</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="4"/>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="14">
+        <f t="shared" si="1"/>
+        <v>-7.4342105263157987E-2</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.13355263157894803</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.10065789473684206</v>
+      </c>
+      <c r="S11" s="14">
+        <f t="shared" si="1"/>
+        <v>-5.5263157894737014E-2</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.37565789473684197</v>
+      </c>
+      <c r="V11" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.10921052631578898</v>
+      </c>
+      <c r="W11" s="107">
+        <f t="shared" si="1"/>
+        <v>-8.7500000000000022E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -4617,10 +5063,10 @@
       <c r="F12" s="19">
         <v>0.73421052631578998</v>
       </c>
-      <c r="G12" s="106">
+      <c r="G12" s="101">
         <v>0.85131578947368403</v>
       </c>
-      <c r="H12" s="106">
+      <c r="H12" s="101">
         <v>0.91710526315789498</v>
       </c>
       <c r="I12" s="19">
@@ -4629,11 +5075,48 @@
       <c r="J12" s="19">
         <v>0.74934210526315803</v>
       </c>
-      <c r="K12" s="112">
+      <c r="K12" s="102">
         <v>0.86315789473684201</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.11381578947368409</v>
+      </c>
+      <c r="Q12" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.16842105263157903</v>
+      </c>
+      <c r="R12" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.15789473684210498</v>
+      </c>
+      <c r="S12" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.14144736842105299</v>
+      </c>
+      <c r="T12" s="18">
+        <f t="shared" si="1"/>
+        <v>-3.9473684210525994E-2</v>
+      </c>
+      <c r="U12" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.41842105263157903</v>
+      </c>
+      <c r="V12" s="18">
+        <f t="shared" si="1"/>
+        <v>-3.4868421052631993E-2</v>
+      </c>
+      <c r="W12" s="108">
+        <f t="shared" si="1"/>
+        <v>-9.5394736842104977E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -4646,10 +5129,10 @@
       <c r="D13" s="28">
         <v>0.86973684210526303</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E13" s="103">
         <v>0.89013157894736805</v>
       </c>
-      <c r="F13" s="108">
+      <c r="F13" s="103">
         <v>0.88223684210526299</v>
       </c>
       <c r="G13" s="22">
@@ -4664,11 +5147,52 @@
       <c r="J13" s="22">
         <v>0.86052631578947403</v>
       </c>
-      <c r="K13" s="113">
+      <c r="K13" s="104">
         <v>0.888815789473684</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="28">
+        <f t="shared" ref="P13:W16" si="2">D13-MAX(D5,D9,D13,D17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="28">
+        <f t="shared" si="2"/>
+        <v>-5.8552631578947079E-2</v>
+      </c>
+      <c r="T13" s="28">
+        <f t="shared" si="2"/>
+        <v>-1.052631578947405E-2</v>
+      </c>
+      <c r="U13" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="106">
+        <f t="shared" si="2"/>
+        <v>-2.6315789473689843E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -4676,13 +5200,13 @@
       <c r="D14" s="14">
         <v>0.88026315789473697</v>
       </c>
-      <c r="E14" s="109">
+      <c r="E14" s="99">
         <v>0.99407894736842095</v>
       </c>
       <c r="F14" s="15">
         <v>0.879605263157895</v>
       </c>
-      <c r="G14" s="109">
+      <c r="G14" s="99">
         <v>0.99934210526315803</v>
       </c>
       <c r="H14" s="15">
@@ -4694,11 +5218,48 @@
       <c r="J14" s="15">
         <v>0.8</v>
       </c>
-      <c r="K14" s="111">
+      <c r="K14" s="100">
         <v>0.94802631578947405</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="4"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
+        <f t="shared" si="2"/>
+        <v>-4.3421052631579027E-2</v>
+      </c>
+      <c r="U14" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -4706,7 +5267,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="107">
+      <c r="D15" s="105">
         <v>0.89736842105263204</v>
       </c>
       <c r="E15" s="15">
@@ -4718,10 +5279,10 @@
       <c r="G15" s="15">
         <v>0.88618421052631602</v>
       </c>
-      <c r="H15" s="109">
+      <c r="H15" s="99">
         <v>0.88815789473684204</v>
       </c>
-      <c r="I15" s="109">
+      <c r="I15" s="99">
         <v>0.888815789473684</v>
       </c>
       <c r="J15" s="15">
@@ -4730,8 +5291,47 @@
       <c r="K15" s="25">
         <v>0.88552631578947405</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="4"/>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="14">
+        <f t="shared" si="2"/>
+        <v>-1.1842105263157987E-2</v>
+      </c>
+      <c r="T15" s="14">
+        <f t="shared" si="2"/>
+        <v>-1.3157894736839371E-3</v>
+      </c>
+      <c r="U15" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -4740,13 +5340,13 @@
       <c r="D16" s="18">
         <v>0.87631578947368405</v>
       </c>
-      <c r="E16" s="106">
+      <c r="E16" s="101">
         <v>0.99802631578947398</v>
       </c>
       <c r="F16" s="19">
         <v>0.89210526315789496</v>
       </c>
-      <c r="G16" s="106">
+      <c r="G16" s="101">
         <v>0.99276315789473701</v>
       </c>
       <c r="H16" s="19">
@@ -4758,11 +5358,48 @@
       <c r="J16" s="19">
         <v>0.78421052631579002</v>
       </c>
-      <c r="K16" s="112">
+      <c r="K16" s="102">
         <v>0.95855263157894699</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="18">
+        <f t="shared" si="2"/>
+        <v>-6.6447368421051922E-2</v>
+      </c>
+      <c r="U16" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -4781,23 +5418,64 @@
       <c r="F17" s="22">
         <v>0.78026315789473699</v>
       </c>
-      <c r="G17" s="108">
+      <c r="G17" s="103">
         <v>0.93684210526315803</v>
       </c>
-      <c r="H17" s="108">
+      <c r="H17" s="103">
         <v>0.884210526315789</v>
       </c>
-      <c r="I17" s="108">
+      <c r="I17" s="103">
         <v>0.83684210526315805</v>
       </c>
       <c r="J17" s="22">
         <v>0.68026315789473701</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="67">
         <v>0.740789473684211</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="28">
+        <f t="shared" ref="P17:W20" si="3">D17-MAX(D5,D9,D13,D17)</f>
+        <v>-0.18355263157894708</v>
+      </c>
+      <c r="Q17" s="28">
+        <f t="shared" si="3"/>
+        <v>-9.2105263157894024E-2</v>
+      </c>
+      <c r="R17" s="28">
+        <f t="shared" si="3"/>
+        <v>-0.10197368421052599</v>
+      </c>
+      <c r="S17" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="28">
+        <f t="shared" si="3"/>
+        <v>-2.3026315789474006E-2</v>
+      </c>
+      <c r="U17" s="28">
+        <f t="shared" si="3"/>
+        <v>-4.4078947368420995E-2</v>
+      </c>
+      <c r="V17" s="28">
+        <f t="shared" si="3"/>
+        <v>-0.18026315789473701</v>
+      </c>
+      <c r="W17" s="106">
+        <f t="shared" si="3"/>
+        <v>-0.15065789473684199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -4811,10 +5489,10 @@
       <c r="F18" s="15">
         <v>0.74802631578947398</v>
       </c>
-      <c r="G18" s="109">
+      <c r="G18" s="99">
         <v>0.92236842105263195</v>
       </c>
-      <c r="H18" s="109">
+      <c r="H18" s="99">
         <v>0.94539473684210495</v>
       </c>
       <c r="I18" s="15">
@@ -4823,11 +5501,48 @@
       <c r="J18" s="15">
         <v>0.64473684210526305</v>
       </c>
-      <c r="K18" s="111">
+      <c r="K18" s="100">
         <v>0.91973684210526296</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="4"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.19934210526315799</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" si="3"/>
+        <v>-9.2105263157894912E-2</v>
+      </c>
+      <c r="R18" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.13157894736842102</v>
+      </c>
+      <c r="S18" s="14">
+        <f t="shared" si="3"/>
+        <v>-7.6973684210526083E-2</v>
+      </c>
+      <c r="T18" s="14">
+        <f t="shared" si="3"/>
+        <v>-1.052631578947405E-2</v>
+      </c>
+      <c r="U18" s="14">
+        <f t="shared" si="3"/>
+        <v>-6.5131578947368984E-2</v>
+      </c>
+      <c r="V18" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.15526315789473699</v>
+      </c>
+      <c r="W18" s="107">
+        <f t="shared" si="3"/>
+        <v>-2.8289473684211086E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -4844,23 +5559,62 @@
       <c r="F19" s="15">
         <v>0.78092105263157896</v>
       </c>
-      <c r="G19" s="109">
+      <c r="G19" s="99">
         <v>0.89802631578947401</v>
       </c>
-      <c r="H19" s="109">
+      <c r="H19" s="99">
         <v>0.794078947368421</v>
       </c>
-      <c r="I19" s="109">
+      <c r="I19" s="99">
         <v>0.79342105263157903</v>
       </c>
       <c r="J19" s="15">
         <v>0.68947368421052602</v>
       </c>
-      <c r="K19" s="111">
+      <c r="K19" s="100">
         <v>0.79605263157894701</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="4"/>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.182894736842106</v>
+      </c>
+      <c r="Q19" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.10921052631578998</v>
+      </c>
+      <c r="R19" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.10328947368421004</v>
+      </c>
+      <c r="S19" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="14">
+        <f t="shared" si="3"/>
+        <v>-9.5394736842104977E-2</v>
+      </c>
+      <c r="U19" s="14">
+        <f t="shared" si="3"/>
+        <v>-9.5394736842104977E-2</v>
+      </c>
+      <c r="V19" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.16644736842105301</v>
+      </c>
+      <c r="W19" s="107">
+        <f t="shared" si="3"/>
+        <v>-8.9473684210527038E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -4869,16 +5623,16 @@
       <c r="D20" s="18">
         <v>0.70197368421052597</v>
       </c>
-      <c r="E20" s="106">
+      <c r="E20" s="101">
         <v>0.92302631578947403</v>
       </c>
       <c r="F20" s="19">
         <v>0.78157894736842104</v>
       </c>
-      <c r="G20" s="106">
+      <c r="G20" s="101">
         <v>0.90394736842105305</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="101">
         <v>0.95657894736842097</v>
       </c>
       <c r="I20" s="19">
@@ -4890,8 +5644,45 @@
       <c r="K20" s="26">
         <v>0.89736842105263204</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="18">
+        <f t="shared" si="3"/>
+        <v>-0.17434210526315808</v>
+      </c>
+      <c r="Q20" s="18">
+        <f t="shared" si="3"/>
+        <v>-7.4999999999999956E-2</v>
+      </c>
+      <c r="R20" s="18">
+        <f t="shared" si="3"/>
+        <v>-0.11052631578947392</v>
+      </c>
+      <c r="S20" s="18">
+        <f t="shared" si="3"/>
+        <v>-8.8815789473683959E-2</v>
+      </c>
+      <c r="T20" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="18">
+        <f t="shared" si="3"/>
+        <v>-0.120394736842106</v>
+      </c>
+      <c r="V20" s="18">
+        <f t="shared" si="3"/>
+        <v>-9.7368421052631993E-2</v>
+      </c>
+      <c r="W20" s="108">
+        <f t="shared" si="3"/>
+        <v>-6.1184210526314953E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -4901,188 +5692,1363 @@
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="112"/>
+      <c r="M22" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="112"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="29">
+        <f>D5-MAX(D5,D7)</f>
+        <v>-1.2499999999999956E-2</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" ref="E24:K24" si="4">E5-MAX(E5,E7)</f>
+        <v>-5.6578947368421062E-2</v>
+      </c>
+      <c r="F24" s="29">
+        <f t="shared" si="4"/>
+        <v>-7.2368421052630971E-2</v>
+      </c>
+      <c r="G24" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="29">
+        <f t="shared" si="4"/>
+        <v>-6.7763157894737081E-2</v>
+      </c>
+      <c r="K24" s="29">
+        <f t="shared" si="4"/>
+        <v>-3.0263157894736992E-2</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="29">
+        <f>D5-MAX(D5,D6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="29">
+        <f t="shared" ref="Q24:W24" si="5">E5-MAX(E5,E6)</f>
+        <v>-6.9736842105262986E-2</v>
+      </c>
+      <c r="R24" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="29">
+        <f t="shared" si="5"/>
+        <v>-3.2236842105263008E-2</v>
+      </c>
+      <c r="W24" s="29">
+        <f t="shared" si="5"/>
+        <v>-4.4078947368420995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="14">
+        <f>D6-MAX(D6,D8)</f>
+        <v>-5.6578947368421062E-2</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" ref="E25:K25" si="6">E6-MAX(E6,E8)</f>
+        <v>-1.9736842105270158E-3</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="6"/>
+        <v>-3.8157894736842057E-2</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" si="6"/>
+        <v>-3.8815789473684026E-2</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="6"/>
+        <v>-1.1184210526316019E-2</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="6"/>
+        <v>-2.7631578947368007E-2</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="14">
+        <f>D6-MAX(D5,D6)</f>
+        <v>-6.315789473684208E-2</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" ref="Q25:W25" si="7">E6-MAX(E5,E6)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="14">
+        <f t="shared" si="7"/>
+        <v>-4.605263157895001E-3</v>
+      </c>
+      <c r="S25" s="14">
+        <f t="shared" si="7"/>
+        <v>-1.3157894736839371E-3</v>
+      </c>
+      <c r="T25" s="14">
+        <f t="shared" si="7"/>
+        <v>-1.2499999999999956E-2</v>
+      </c>
+      <c r="U25" s="14">
+        <f t="shared" si="7"/>
+        <v>-5.197368421052706E-2</v>
+      </c>
+      <c r="V25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14">
+        <f>D7-MAX(D5,D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" ref="E26:K26" si="8">E7-MAX(E5,E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="14">
+        <f t="shared" si="8"/>
+        <v>-1.8421052631578894E-2</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="8"/>
+        <v>-1.4473684210525972E-2</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="8"/>
+        <v>-1.7105263157895068E-2</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="29">
+        <f>D7-MAX(D7,D8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="29">
+        <f t="shared" ref="Q26:W26" si="9">E7-MAX(E7,E8)</f>
+        <v>-1.513157894736894E-2</v>
+      </c>
+      <c r="R26" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="29">
+        <f t="shared" si="9"/>
+        <v>-5.5921052631578982E-2</v>
+      </c>
+      <c r="T26" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="29">
+        <f t="shared" si="9"/>
+        <v>-4.1447368421052011E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="18">
+        <f>D8-MAX(D6,D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="18">
+        <f t="shared" ref="E27:K27" si="10">E8-MAX(E6,E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <f t="shared" si="10"/>
+        <v>-6.6447368421053032E-2</v>
+      </c>
+      <c r="I27" s="18">
+        <f t="shared" si="10"/>
+        <v>-6.5131578947367985E-2</v>
+      </c>
+      <c r="J27" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="14">
+        <f>D8-MAX(D7,D8)</f>
+        <v>-1.9078947368420973E-2</v>
+      </c>
+      <c r="Q27" s="14">
+        <f t="shared" ref="Q27:W27" si="11">E8-MAX(E7,E8)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="14">
+        <f t="shared" si="11"/>
+        <v>-3.8815789473683915E-2</v>
+      </c>
+      <c r="S27" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="14">
+        <f t="shared" si="11"/>
+        <v>-6.4473684210527016E-2</v>
+      </c>
+      <c r="U27" s="14">
+        <f t="shared" si="11"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="V27" s="14">
+        <f t="shared" si="11"/>
+        <v>-2.4342105263158054E-2</v>
+      </c>
+      <c r="W27" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="29">
+        <f>D9-MAX(D9,D11)</f>
+        <v>-5.2631578947369029E-2</v>
+      </c>
+      <c r="E28" s="29">
+        <f t="shared" ref="E28:K28" si="12">E9-MAX(E9,E11)</f>
+        <v>-1.8421052631579005E-2</v>
+      </c>
+      <c r="F28" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="29">
+        <f t="shared" si="12"/>
+        <v>-1.3157894736842035E-2</v>
+      </c>
+      <c r="J28" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="29">
+        <f>D9-MAX(D9,D10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="29">
+        <f t="shared" ref="Q28:W28" si="13">E9-MAX(E9,E10)</f>
+        <v>-0.111184210526316</v>
+      </c>
+      <c r="R28" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="29">
+        <f t="shared" si="13"/>
+        <v>-1.3157894736843034E-2</v>
+      </c>
+      <c r="T28" s="29">
+        <f t="shared" si="13"/>
+        <v>-4.8684210526315996E-2</v>
+      </c>
+      <c r="U28" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="29">
+        <f t="shared" si="13"/>
+        <v>-1.9736842105260166E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="14">
+        <f>D10-MAX(D10,D12)</f>
+        <v>-4.605263157895001E-3</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" ref="E29:K29" si="14">E10-MAX(E10,E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="14"/>
+        <v>-1.0526315789473939E-2</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="14"/>
+        <v>-1.1184210526316019E-2</v>
+      </c>
+      <c r="J29" s="14">
+        <f t="shared" si="14"/>
+        <v>-2.4342105263158054E-2</v>
+      </c>
+      <c r="K29" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="14">
+        <f>D10-MAX(D9,D10)</f>
+        <v>-1.2500000000000067E-2</v>
+      </c>
+      <c r="Q29" s="14">
+        <f t="shared" ref="Q29:W29" si="15">E10-MAX(E9,E10)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="14">
+        <f t="shared" si="15"/>
+        <v>-0.11973684210526292</v>
+      </c>
+      <c r="S29" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="14">
+        <f t="shared" si="15"/>
+        <v>-7.1052631578947034E-2</v>
+      </c>
+      <c r="W29" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="14">
+        <f>D11-MAX(D9,D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" ref="E30:K30" si="16">E11-MAX(E9,E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="14">
+        <f t="shared" si="16"/>
+        <v>-5.9868421052632015E-2</v>
+      </c>
+      <c r="G30" s="14">
+        <f t="shared" si="16"/>
+        <v>-2.1710526315788958E-2</v>
+      </c>
+      <c r="H30" s="14">
+        <f t="shared" si="16"/>
+        <v>-1.7763157894737036E-2</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" si="16"/>
+        <v>-4.9342105263156966E-2</v>
+      </c>
+      <c r="K30" s="14">
+        <f t="shared" si="16"/>
+        <v>-9.342105263157896E-2</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="29">
+        <f>D11-MAX(D11,D12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="29">
+        <f t="shared" ref="Q30:W30" si="17">E11-MAX(E11,E12)</f>
+        <v>-7.9605263157894957E-2</v>
+      </c>
+      <c r="R30" s="29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="29">
+        <f t="shared" si="17"/>
+        <v>-8.5526315789470342E-3</v>
+      </c>
+      <c r="T30" s="29">
+        <f t="shared" si="17"/>
+        <v>-2.7631578947369007E-2</v>
+      </c>
+      <c r="U30" s="29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="29">
+        <f t="shared" si="17"/>
+        <v>-2.6315789473679851E-3</v>
+      </c>
+      <c r="W30" s="29">
+        <f t="shared" si="17"/>
+        <v>-6.5131578947367985E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="18">
+        <f>D12-MAX(D10,D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="18">
+        <f t="shared" ref="E31:K31" si="18">E12-MAX(E10,E12)</f>
+        <v>-1.3157894736842035E-2</v>
+      </c>
+      <c r="F31" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="18">
+        <f t="shared" si="18"/>
+        <v>-2.6315789473684958E-2</v>
+      </c>
+      <c r="H31" s="18">
+        <f t="shared" si="18"/>
+        <v>-3.8815789473684026E-2</v>
+      </c>
+      <c r="I31" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="18">
+        <f t="shared" si="18"/>
+        <v>-3.0263157894736992E-2</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="14">
+        <f>D12-MAX(D11,D12)</f>
+        <v>-6.0526315789474094E-2</v>
+      </c>
+      <c r="Q31" s="14">
+        <f t="shared" ref="Q31:W31" si="19">E12-MAX(E11,E12)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="14">
+        <f t="shared" si="19"/>
+        <v>-4.9342105263156966E-2</v>
+      </c>
+      <c r="S31" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="14">
+        <f t="shared" si="19"/>
+        <v>-1.9736842105260166E-3</v>
+      </c>
+      <c r="V31" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="29">
+        <f>D13-MAX(D13,D15)</f>
+        <v>-2.7631578947369007E-2</v>
+      </c>
+      <c r="E32" s="29">
+        <f t="shared" ref="E32:K32" si="20">E13-MAX(E13,E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="29">
+        <f t="shared" si="20"/>
+        <v>-1.9736842105260166E-3</v>
+      </c>
+      <c r="G32" s="29">
+        <f t="shared" si="20"/>
+        <v>-7.8947368421050657E-3</v>
+      </c>
+      <c r="H32" s="29">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="29">
+        <f t="shared" si="20"/>
+        <v>-7.8947368421049546E-3</v>
+      </c>
+      <c r="J32" s="29">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="29">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="29">
+        <f>D13-MAX(D13,D14)</f>
+        <v>-1.0526315789473939E-2</v>
+      </c>
+      <c r="Q32" s="29">
+        <f t="shared" ref="Q32:W32" si="21">E13-MAX(E13,E14)</f>
+        <v>-0.1039473684210529</v>
+      </c>
+      <c r="R32" s="29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="29">
+        <f t="shared" si="21"/>
+        <v>-0.12105263157894708</v>
+      </c>
+      <c r="T32" s="29">
+        <f t="shared" si="21"/>
+        <v>-1.5789473684211019E-2</v>
+      </c>
+      <c r="U32" s="29">
+        <f t="shared" si="21"/>
+        <v>-3.618421052631593E-2</v>
+      </c>
+      <c r="V32" s="29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="29">
+        <f t="shared" si="21"/>
+        <v>-5.9210526315790046E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="14">
+        <f>D14-MAX(D14,D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" ref="E33:K33" si="22">E14-MAX(E14,E16)</f>
+        <v>-3.9473684210530324E-3</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="22"/>
+        <v>-1.2499999999999956E-2</v>
+      </c>
+      <c r="G33" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="22"/>
+        <v>-1.2500000000000067E-2</v>
+      </c>
+      <c r="J33" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" si="22"/>
+        <v>-1.052631578947294E-2</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="14">
+        <f>D14-MAX(D13,D14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="14">
+        <f t="shared" ref="Q33:W33" si="23">E14-MAX(E13,E14)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="14">
+        <f t="shared" si="23"/>
+        <v>-2.6315789473679851E-3</v>
+      </c>
+      <c r="S33" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="14">
+        <f t="shared" si="23"/>
+        <v>-6.0526315789473983E-2</v>
+      </c>
+      <c r="W33" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="14">
+        <f>D15-MAX(D13,D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" ref="E34:K34" si="24">E15-MAX(E13,E15)</f>
+        <v>-6.5789473684200184E-3</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
+        <f t="shared" si="24"/>
+        <v>-8.5526315789469232E-3</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="14">
+        <f t="shared" si="24"/>
+        <v>-4.605263157895001E-3</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="shared" si="24"/>
+        <v>-3.2894736842099537E-3</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="29">
+        <f>D15-MAX(D15,D16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="29">
+        <f t="shared" ref="Q34:W34" si="25">E15-MAX(E15,E16)</f>
+        <v>-0.11447368421052595</v>
+      </c>
+      <c r="R34" s="29">
+        <f t="shared" si="25"/>
+        <v>-7.8947368421059538E-3</v>
+      </c>
+      <c r="S34" s="29">
+        <f t="shared" si="25"/>
+        <v>-0.106578947368421</v>
+      </c>
+      <c r="T34" s="29">
+        <f t="shared" si="25"/>
+        <v>-1.9736842105270158E-3</v>
+      </c>
+      <c r="U34" s="29">
+        <f t="shared" si="25"/>
+        <v>-4.0789473684211042E-2</v>
+      </c>
+      <c r="V34" s="29">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="29">
+        <f t="shared" si="25"/>
+        <v>-7.302631578947294E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="18">
+        <f>D16-MAX(D14,D16)</f>
+        <v>-3.9473684210529214E-3</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" ref="E35:K35" si="26">E16-MAX(E14,E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="18">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="18">
+        <f t="shared" si="26"/>
+        <v>-6.5789473684210176E-3</v>
+      </c>
+      <c r="H35" s="18">
+        <f t="shared" si="26"/>
+        <v>-2.2368421052630927E-2</v>
+      </c>
+      <c r="I35" s="18">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="18">
+        <f t="shared" si="26"/>
+        <v>-1.578947368421002E-2</v>
+      </c>
+      <c r="K35" s="18">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="14">
+        <f>D16-MAX(D15,D16)</f>
+        <v>-2.1052631578947989E-2</v>
+      </c>
+      <c r="Q35" s="14">
+        <f t="shared" ref="Q35:W35" si="27">E16-MAX(E15,E16)</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="14">
+        <f t="shared" si="27"/>
+        <v>-7.1710526315789003E-2</v>
+      </c>
+      <c r="W35" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="29">
+        <f>D17-MAX(D17,D19)</f>
+        <v>-2.8289473684210087E-2</v>
+      </c>
+      <c r="E36" s="29">
+        <f t="shared" ref="E36:K36" si="28">E17-MAX(E17,E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="29">
+        <f t="shared" si="28"/>
+        <v>-6.5789473684196853E-4</v>
+      </c>
+      <c r="G36" s="29">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="29">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="29">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="29">
+        <f t="shared" si="28"/>
+        <v>-9.2105263157890027E-3</v>
+      </c>
+      <c r="K36" s="29">
+        <f t="shared" si="28"/>
+        <v>-5.5263157894736015E-2</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="29">
+        <f>D17-MAX(D17,D18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="29">
+        <f t="shared" ref="Q36:W36" si="29">E17-MAX(E17,E18)</f>
+        <v>-0.10394736842105201</v>
+      </c>
+      <c r="R36" s="29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="29">
+        <f t="shared" si="29"/>
+        <v>-6.1184210526315952E-2</v>
+      </c>
+      <c r="U36" s="29">
+        <f t="shared" si="29"/>
+        <v>-1.5131578947367941E-2</v>
+      </c>
+      <c r="V36" s="29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="29">
+        <f t="shared" si="29"/>
+        <v>-0.17894736842105197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="14">
+        <f>D18-MAX(D18,D20)</f>
+        <v>-2.105263157894699E-2</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" ref="E37:K37" si="30">E18-MAX(E18,E20)</f>
+        <v>-2.1052631578947989E-2</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="30"/>
+        <v>-3.3552631578947056E-2</v>
+      </c>
+      <c r="G37" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="30"/>
+        <v>-1.1184210526316019E-2</v>
+      </c>
+      <c r="I37" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="14">
+        <f t="shared" si="30"/>
+        <v>-4.2105263157894979E-2</v>
+      </c>
+      <c r="K37" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="14">
+        <f>D18-MAX(D17,D18)</f>
+        <v>-5.2631578947369695E-3</v>
+      </c>
+      <c r="Q37" s="14">
+        <f t="shared" ref="Q37:W37" si="31">E18-MAX(E17,E18)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="14">
+        <f t="shared" si="31"/>
+        <v>-3.2236842105263008E-2</v>
+      </c>
+      <c r="S37" s="14">
+        <f t="shared" si="31"/>
+        <v>-1.4473684210526083E-2</v>
+      </c>
+      <c r="T37" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="14">
+        <f t="shared" si="31"/>
+        <v>-3.5526315789473961E-2</v>
+      </c>
+      <c r="W37" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="14">
+        <f>D19-MAX(D17,D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" ref="E38:K38" si="32">E19-MAX(E17,E19)</f>
+        <v>-2.3684210526315974E-2</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="14">
+        <f t="shared" si="32"/>
+        <v>-3.8815789473684026E-2</v>
+      </c>
+      <c r="H38" s="14">
+        <f t="shared" si="32"/>
+        <v>-9.0131578947368007E-2</v>
+      </c>
+      <c r="I38" s="14">
+        <f t="shared" si="32"/>
+        <v>-4.3421052631579027E-2</v>
+      </c>
+      <c r="J38" s="14">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="14">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="29">
+        <f>D19-MAX(D19,D20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="29">
+        <f t="shared" ref="Q38:W38" si="33">E19-MAX(E19,E20)</f>
+        <v>-0.14868421052631597</v>
+      </c>
+      <c r="R38" s="29">
+        <f t="shared" si="33"/>
+        <v>-6.5789473684207955E-4</v>
+      </c>
+      <c r="S38" s="29">
+        <f t="shared" si="33"/>
+        <v>-5.921052631579049E-3</v>
+      </c>
+      <c r="T38" s="29">
+        <f t="shared" si="33"/>
+        <v>-0.16249999999999998</v>
+      </c>
+      <c r="U38" s="29">
+        <f t="shared" si="33"/>
+        <v>-1.578947368421002E-2</v>
+      </c>
+      <c r="V38" s="29">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="29">
+        <f t="shared" si="33"/>
+        <v>-0.10131578947368503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="18">
+        <f>D20-MAX(D18,D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" ref="E39:K39" si="34">E20-MAX(E18,E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="18">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="18">
+        <f t="shared" si="34"/>
+        <v>-1.8421052631578894E-2</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="18">
+        <f t="shared" si="34"/>
+        <v>-4.2763157894736947E-2</v>
+      </c>
+      <c r="J39" s="18">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="18">
+        <f t="shared" si="34"/>
+        <v>-2.2368421052630927E-2</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" s="14">
+        <f>D20-MAX(D19,D20)</f>
+        <v>-1.2500000000000067E-2</v>
+      </c>
+      <c r="Q39" s="14">
+        <f t="shared" ref="Q39:W39" si="35">E20-MAX(E19,E20)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="14">
+        <f t="shared" si="35"/>
+        <v>-2.6315789473679851E-3</v>
+      </c>
+      <c r="W39" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -5092,7 +7058,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -5100,11 +7066,10 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -5112,7 +7077,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -5122,7 +7087,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -5132,7 +7097,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -5142,7 +7107,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -5152,7 +7117,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -5162,7 +7127,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -5223,10 +7188,17 @@
       <c r="K53" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="M22:W22"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="P25" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5253,19 +7225,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6023,19 +7995,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6083,28 +8055,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="82">
         <v>31</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="43">
         <v>218</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="43">
         <v>133</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="83">
         <v>239</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="83">
         <v>241</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="43">
         <v>195</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="43">
         <v>9</v>
       </c>
-      <c r="K5" s="86">
+      <c r="K5" s="84">
         <v>267</v>
       </c>
     </row>
@@ -6113,28 +8085,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="56">
         <v>16</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="85">
         <v>274</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="45">
         <v>103</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="45">
         <v>221</v>
       </c>
-      <c r="H6" s="87">
+      <c r="H6" s="85">
         <v>216</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="45">
         <v>269</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="45">
         <v>12</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="86">
         <v>217</v>
       </c>
     </row>
@@ -6146,28 +8118,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="56">
         <v>42</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="45">
         <v>216</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="45">
         <v>154</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="45">
         <v>217</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="85">
         <v>217</v>
       </c>
-      <c r="I7" s="87">
+      <c r="I7" s="85">
         <v>281</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="45">
         <v>32</v>
       </c>
-      <c r="K7" s="88">
+      <c r="K7" s="86">
         <v>216</v>
       </c>
     </row>
@@ -6177,28 +8149,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="57">
         <v>30</v>
       </c>
-      <c r="E8" s="89">
+      <c r="E8" s="87">
         <v>281</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="64">
         <v>29</v>
       </c>
-      <c r="G8" s="89">
+      <c r="G8" s="87">
         <v>218</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="64">
         <v>218</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="64">
         <v>281</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="64">
         <v>29</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="88">
         <v>216</v>
       </c>
     </row>
@@ -6212,28 +8184,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="89">
         <v>185</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="53">
         <v>164</v>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="90">
         <v>188</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="90">
         <v>216</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="90">
         <v>217</v>
       </c>
-      <c r="I9" s="55">
-        <v>1</v>
-      </c>
-      <c r="J9" s="55">
+      <c r="I9" s="53">
+        <v>1</v>
+      </c>
+      <c r="J9" s="53">
         <v>184</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="54">
         <v>215</v>
       </c>
     </row>
@@ -6242,28 +8214,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="56">
         <v>183</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="85">
         <v>216</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="45">
         <v>152</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="45">
         <v>217</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="85">
         <v>216</v>
       </c>
-      <c r="I10" s="47">
-        <v>1</v>
-      </c>
-      <c r="J10" s="47">
+      <c r="I10" s="45">
+        <v>1</v>
+      </c>
+      <c r="J10" s="45">
         <v>158</v>
       </c>
-      <c r="K10" s="88">
+      <c r="K10" s="86">
         <v>216</v>
       </c>
     </row>
@@ -6275,28 +8247,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="56">
         <v>54</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="45">
         <v>217</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="45">
         <v>156</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="85">
         <v>201</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="85">
         <v>215</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="45">
         <v>2</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="45">
         <v>157</v>
       </c>
-      <c r="K11" s="88">
+      <c r="K11" s="86">
         <v>217</v>
       </c>
     </row>
@@ -6306,28 +8278,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="57">
         <v>180</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="87">
         <v>217</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="64">
         <v>177</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="64">
         <v>217</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="87">
         <v>218</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="64">
         <v>2</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="64">
         <v>178</v>
       </c>
-      <c r="K12" s="90">
+      <c r="K12" s="88">
         <v>217</v>
       </c>
     </row>
@@ -6341,28 +8313,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="77">
         <v>81</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="78">
         <v>75</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="52">
         <v>68</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="52">
         <v>67</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="52">
         <v>73</v>
       </c>
-      <c r="I13" s="80">
+      <c r="I13" s="78">
         <v>76</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="52">
         <v>74</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="81">
         <v>78</v>
       </c>
     </row>
@@ -6371,28 +8343,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="72">
         <v>69</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="34">
         <v>44</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>74</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="34">
         <v>45</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="33">
         <v>72</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="33">
         <v>74</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="33">
         <v>57</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="73">
         <v>47</v>
       </c>
     </row>
@@ -6404,28 +8376,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="72">
         <v>82</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="33">
         <v>67</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="33">
         <v>72</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="34">
         <v>78</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="34">
         <v>63</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="34">
         <v>71</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="33">
         <v>76</v>
       </c>
-      <c r="K15" s="82">
+      <c r="K15" s="80">
         <v>70</v>
       </c>
     </row>
@@ -6435,28 +8407,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="74">
         <v>76</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="75">
         <v>44</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="63">
         <v>79</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="75">
         <v>45</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="63">
         <v>68</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="63">
         <v>71</v>
       </c>
-      <c r="J16" s="65">
+      <c r="J16" s="63">
         <v>64</v>
       </c>
-      <c r="K16" s="78">
+      <c r="K16" s="76">
         <v>44</v>
       </c>
     </row>
@@ -6470,28 +8442,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="77">
         <v>7</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="52">
         <v>218</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="52">
         <v>128</v>
       </c>
-      <c r="G17" s="80">
+      <c r="G17" s="78">
         <v>219</v>
       </c>
-      <c r="H17" s="80">
+      <c r="H17" s="78">
         <v>223</v>
       </c>
-      <c r="I17" s="80">
+      <c r="I17" s="78">
         <v>224</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="52">
         <v>56</v>
       </c>
-      <c r="K17" s="81">
+      <c r="K17" s="79">
         <v>221</v>
       </c>
     </row>
@@ -6500,28 +8472,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="72">
         <v>18</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="34">
         <v>50</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="33">
         <v>57</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="34">
         <v>45</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="34">
         <v>143</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="33">
         <v>159</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="33">
         <v>12</v>
       </c>
-      <c r="K18" s="82">
+      <c r="K18" s="80">
         <v>170</v>
       </c>
     </row>
@@ -6533,28 +8505,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="72">
         <v>16</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="33">
         <v>218</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="33">
         <v>113</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="34">
         <v>220</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="34">
         <v>211</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="34">
         <v>213</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="33">
         <v>20</v>
       </c>
-      <c r="K19" s="75">
+      <c r="K19" s="73">
         <v>205</v>
       </c>
     </row>
@@ -6564,28 +8536,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="74">
         <v>21</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="75">
         <v>222</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="63">
         <v>139</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="63">
         <v>79</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="75">
         <v>115</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="63">
         <v>176</v>
       </c>
-      <c r="J20" s="65">
+      <c r="J20" s="63">
         <v>12</v>
       </c>
-      <c r="K20" s="78">
+      <c r="K20" s="76">
         <v>55</v>
       </c>
     </row>
@@ -6794,19 +8766,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6854,28 +8826,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="82">
         <v>17.100000000000001</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="43">
         <v>100.1</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="43">
         <v>46.8</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="83">
         <v>151.4</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="83">
         <v>178.6</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="43">
         <v>176.3</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="43">
         <v>7.5</v>
       </c>
-      <c r="K5" s="86">
+      <c r="K5" s="84">
         <v>95.6</v>
       </c>
     </row>
@@ -6884,28 +8856,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="56">
         <v>16.7</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="85">
         <v>156.80000000000001</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="45">
         <v>33.1</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="45">
         <v>152.1</v>
       </c>
-      <c r="H6" s="87">
+      <c r="H6" s="85">
         <v>164.9</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="45">
         <v>173.8</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="45">
         <v>7.6</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="86">
         <v>158.1</v>
       </c>
     </row>
@@ -6917,28 +8889,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="56">
         <v>22.3</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="45">
         <v>85.7</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="45">
         <v>68.7</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="45">
         <v>156.5</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="85">
         <v>158.80000000000001</v>
       </c>
-      <c r="I7" s="87">
+      <c r="I7" s="85">
         <v>202.7</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="45">
         <v>12.4</v>
       </c>
-      <c r="K7" s="88">
+      <c r="K7" s="86">
         <v>135.5</v>
       </c>
     </row>
@@ -6948,28 +8920,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="57">
         <v>20.399999999999999</v>
       </c>
-      <c r="E8" s="89">
+      <c r="E8" s="87">
         <v>132.5</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="64">
         <v>47.4</v>
       </c>
-      <c r="G8" s="89">
+      <c r="G8" s="87">
         <v>204.5</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="64">
         <v>136.4</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="64">
         <v>168.1</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="64">
         <v>15.6</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="88">
         <v>165.8</v>
       </c>
     </row>
@@ -6983,28 +8955,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="89">
         <v>73.2</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="53">
         <v>46.8</v>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="90">
         <v>124.9</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="90">
         <v>160.4</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="90">
         <v>195.5</v>
       </c>
-      <c r="I9" s="55">
-        <v>1</v>
-      </c>
-      <c r="J9" s="55">
+      <c r="I9" s="53">
+        <v>1</v>
+      </c>
+      <c r="J9" s="53">
         <v>73.2</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="54">
         <v>195.6</v>
       </c>
     </row>
@@ -7013,28 +8985,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="56">
         <v>76.3</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="85">
         <v>129.5</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="45">
         <v>51.6</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="45">
         <v>160.30000000000001</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="85">
         <v>215</v>
       </c>
-      <c r="I10" s="47">
-        <v>1</v>
-      </c>
-      <c r="J10" s="47">
+      <c r="I10" s="45">
+        <v>1</v>
+      </c>
+      <c r="J10" s="45">
         <v>67</v>
       </c>
-      <c r="K10" s="88">
+      <c r="K10" s="86">
         <v>180.7</v>
       </c>
     </row>
@@ -7046,28 +9018,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="56">
         <v>60</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="45">
         <v>112</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="45">
         <v>64.7</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="85">
         <v>142.4</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="85">
         <v>178</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="45">
         <v>2</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="45">
         <v>40.6</v>
       </c>
-      <c r="K11" s="88">
+      <c r="K11" s="86">
         <v>117.4</v>
       </c>
     </row>
@@ -7077,28 +9049,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="57">
         <v>67.900000000000006</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="87">
         <v>134</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="64">
         <v>66.099999999999994</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="64">
         <v>149</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="87">
         <v>174.7</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="64">
         <v>2</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="64">
         <v>62.2</v>
       </c>
-      <c r="K12" s="90">
+      <c r="K12" s="88">
         <v>135.30000000000001</v>
       </c>
     </row>
@@ -7112,28 +9084,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="77">
         <v>65</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="78">
         <v>70.5</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="52">
         <v>67.2</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="52">
         <v>66.7</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="52">
         <v>70</v>
       </c>
-      <c r="I13" s="80">
+      <c r="I13" s="78">
         <v>71.7</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="52">
         <v>59.7</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="81">
         <v>67.7</v>
       </c>
     </row>
@@ -7142,28 +9114,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="72">
         <v>68.5</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="34">
         <v>44.9</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>68.3</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="34">
         <v>45.9</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="33">
         <v>68.3</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="33">
         <v>64.8</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="33">
         <v>56.9</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="73">
         <v>58.2</v>
       </c>
     </row>
@@ -7175,28 +9147,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="72">
         <v>68.2</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="33">
         <v>68.400000000000006</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="33">
         <v>62.3</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="34">
         <v>68.2</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="34">
         <v>65.400000000000006</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="34">
         <v>65.599999999999994</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="33">
         <v>64.099999999999994</v>
       </c>
-      <c r="K15" s="82">
+      <c r="K15" s="80">
         <v>64.400000000000006</v>
       </c>
     </row>
@@ -7206,28 +9178,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="74">
         <v>70.900000000000006</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="75">
         <v>44.8</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="63">
         <v>68.400000000000006</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="75">
         <v>44.9</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="63">
         <v>67.099999999999994</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="63">
         <v>67.5</v>
       </c>
-      <c r="J16" s="65">
+      <c r="J16" s="63">
         <v>48.2</v>
       </c>
-      <c r="K16" s="78">
+      <c r="K16" s="76">
         <v>55.4</v>
       </c>
     </row>
@@ -7241,28 +9213,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="77">
         <v>8.5</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="52">
         <v>118.5</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="52">
         <v>65</v>
       </c>
-      <c r="G17" s="80">
+      <c r="G17" s="78">
         <v>210</v>
       </c>
-      <c r="H17" s="80">
+      <c r="H17" s="78">
         <v>183.2</v>
       </c>
-      <c r="I17" s="80">
+      <c r="I17" s="78">
         <v>139.80000000000001</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="52">
         <v>20.8</v>
       </c>
-      <c r="K17" s="81">
+      <c r="K17" s="79">
         <v>73.7</v>
       </c>
     </row>
@@ -7271,28 +9243,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="72">
         <v>12.1</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="34">
         <v>106</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="33">
         <v>55.1</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="34">
         <v>115.4</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="34">
         <v>115</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="33">
         <v>112.1</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="33">
         <v>10.3</v>
       </c>
-      <c r="K18" s="82">
+      <c r="K18" s="80">
         <v>118.5</v>
       </c>
     </row>
@@ -7304,28 +9276,28 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="72">
         <v>17.5</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="33">
         <v>101.7</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="33">
         <v>62.4</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="34">
         <v>196.5</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="34">
         <v>99</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="34">
         <v>115</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="33">
         <v>16.5</v>
       </c>
-      <c r="K19" s="75">
+      <c r="K19" s="73">
         <v>128.19999999999999</v>
       </c>
     </row>
@@ -7335,28 +9307,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="74">
         <v>17.399999999999999</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="75">
         <v>144.69999999999999</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="63">
         <v>70.7</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="63">
         <v>100</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="75">
         <v>114</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="63">
         <v>91.7</v>
       </c>
-      <c r="J20" s="65">
+      <c r="J20" s="63">
         <v>14</v>
       </c>
-      <c r="K20" s="78">
+      <c r="K20" s="76">
         <v>99.2</v>
       </c>
     </row>
@@ -7564,19 +9536,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7624,42 +9596,42 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="73"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="72">
         <v>2</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="34">
         <v>5</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="33">
         <v>2</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="33">
         <v>7</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="34">
         <v>7</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="33">
         <v>5</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="33">
         <v>5</v>
       </c>
-      <c r="K6" s="75">
+      <c r="K6" s="73">
         <v>5</v>
       </c>
     </row>
@@ -7671,14 +9643,14 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="75"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -7686,28 +9658,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="74">
         <v>3</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="75">
         <v>3</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="63">
         <v>2</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="75">
         <v>7</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="63">
         <v>6</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="63">
         <v>2</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="63">
         <v>7</v>
       </c>
-      <c r="K8" s="78">
+      <c r="K8" s="76">
         <v>7</v>
       </c>
     </row>
@@ -7721,42 +9693,42 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="81"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="72">
         <v>3</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="34">
         <v>3</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>2</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="33">
         <v>5</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="34">
         <v>7</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="33">
         <v>5</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <v>3</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="73">
         <v>2</v>
       </c>
     </row>
@@ -7768,14 +9740,14 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="75"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -7783,28 +9755,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="74">
         <v>2</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="75">
         <v>5</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="63">
         <v>2</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="63">
         <v>4</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="75">
         <v>7</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="63">
         <v>9</v>
       </c>
-      <c r="J12" s="65">
+      <c r="J12" s="63">
         <v>2</v>
       </c>
-      <c r="K12" s="78">
+      <c r="K12" s="76">
         <v>5</v>
       </c>
     </row>
@@ -7818,42 +9790,42 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="83"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="81"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="72">
         <v>2</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="34">
         <v>3</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>2</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="34">
         <v>3</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="33">
         <v>9</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="33">
         <v>10</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="33">
         <v>2</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="73">
         <v>7</v>
       </c>
     </row>
@@ -7865,14 +9837,14 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="82"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -7880,28 +9852,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="74">
         <v>2</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="75">
         <v>3</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="63">
         <v>2</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="75">
         <v>3</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="63">
         <v>6</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="63">
         <v>10</v>
       </c>
-      <c r="J16" s="65">
+      <c r="J16" s="63">
         <v>2</v>
       </c>
-      <c r="K16" s="78">
+      <c r="K16" s="76">
         <v>3</v>
       </c>
     </row>
@@ -7915,42 +9887,42 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="81"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="79"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="72">
         <v>3</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="34">
         <v>9</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="33">
         <v>2</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="34">
         <v>3</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="34">
         <v>7</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="33">
         <v>4</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="33">
         <v>3</v>
       </c>
-      <c r="K18" s="82">
+      <c r="K18" s="80">
         <v>9</v>
       </c>
     </row>
@@ -7962,14 +9934,14 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="75"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -7977,28 +9949,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="74">
         <v>2</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="75">
         <v>5</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="63">
         <v>2</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="63">
         <v>6</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="75">
         <v>9</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="63">
         <v>3</v>
       </c>
-      <c r="J20" s="65">
+      <c r="J20" s="63">
         <v>2</v>
       </c>
-      <c r="K20" s="78">
+      <c r="K20" s="76">
         <v>6</v>
       </c>
     </row>
@@ -8206,19 +10178,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8266,42 +10238,42 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="73"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="72">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="34">
         <v>3.9</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="33">
         <v>3</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="33">
         <v>5.4</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="34">
         <v>4.8</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="33">
         <v>3.8</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="33">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K6" s="75">
+      <c r="K6" s="73">
         <v>4.5</v>
       </c>
     </row>
@@ -8313,14 +10285,14 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="75"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -8328,28 +10300,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="74">
         <v>3.6</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="75">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="63">
         <v>4.5</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="75">
         <v>3.8</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="63">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="63">
         <v>3.1</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="63">
         <v>3.8</v>
       </c>
-      <c r="K8" s="78">
+      <c r="K8" s="76">
         <v>4.2</v>
       </c>
     </row>
@@ -8363,42 +10335,42 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="81"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="72">
         <v>4.3</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="34">
         <v>3.6</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>3.4</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="33">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="34">
         <v>5</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="33">
         <v>6.4</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <v>3.2</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="73">
         <v>3.8</v>
       </c>
     </row>
@@ -8410,14 +10382,14 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="75"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -8425,28 +10397,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="74">
         <v>3.6</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="75">
         <v>3.8</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="63">
         <v>3.6</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="63">
         <v>3.2</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="75">
         <v>5.3</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="63">
         <v>5.9</v>
       </c>
-      <c r="J12" s="65">
+      <c r="J12" s="63">
         <v>3.5</v>
       </c>
-      <c r="K12" s="78">
+      <c r="K12" s="76">
         <v>4.2</v>
       </c>
     </row>
@@ -8460,42 +10432,42 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="83"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="81"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="72">
         <v>2.1</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="34">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>2.6</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="34">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="33">
         <v>6.5</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="33">
         <v>7.6</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="33">
         <v>4.2</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="73">
         <v>6.9</v>
       </c>
     </row>
@@ -8507,14 +10479,14 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="82"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -8522,28 +10494,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="74">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="75">
         <v>4</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="63">
         <v>2.6</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="75">
         <v>3.8</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="63">
         <v>6.4</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="63">
         <v>8.4</v>
       </c>
-      <c r="J16" s="65">
+      <c r="J16" s="63">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K16" s="78">
+      <c r="K16" s="76">
         <v>5.9</v>
       </c>
     </row>
@@ -8557,42 +10529,42 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="81"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="79"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="72">
         <v>3.1</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="34">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="33">
         <v>3.1</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="34">
         <v>4.5</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="34">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="33">
         <v>4.2</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="33">
         <v>4</v>
       </c>
-      <c r="K18" s="82">
+      <c r="K18" s="80">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -8604,14 +10576,14 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="75"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -8619,28 +10591,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="74">
         <v>3.6</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="75">
         <v>4.3</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="63">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="63">
         <v>3.7</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="75">
         <v>6.5</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="63">
         <v>4.3</v>
       </c>
-      <c r="J20" s="65">
+      <c r="J20" s="63">
         <v>3.7</v>
       </c>
-      <c r="K20" s="78">
+      <c r="K20" s="76">
         <v>3.7</v>
       </c>
     </row>
@@ -8853,56 +10825,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="34" t="s">
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="101" t="s">
+      <c r="K3" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="102"/>
-      <c r="M3" s="101" t="s">
+      <c r="L3" s="115"/>
+      <c r="M3" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="102"/>
-      <c r="O3" s="101" t="s">
+      <c r="N3" s="115"/>
+      <c r="O3" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="103"/>
+      <c r="P3" s="116"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -8911,46 +10883,46 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="42" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8961,88 +10933,88 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="39">
-        <v>1</v>
-      </c>
-      <c r="D5" s="67">
+      <c r="C5" s="37">
+        <v>1</v>
+      </c>
+      <c r="D5" s="65">
         <v>6.25E-2</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="52">
         <v>0.5</v>
       </c>
-      <c r="F5" s="55">
-        <v>1</v>
-      </c>
-      <c r="G5" s="55">
-        <v>1</v>
-      </c>
-      <c r="H5" s="55">
+      <c r="F5" s="53">
+        <v>1</v>
+      </c>
+      <c r="G5" s="53">
+        <v>1</v>
+      </c>
+      <c r="H5" s="53">
         <v>3</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="53">
         <v>128</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="53">
         <v>2</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="53">
         <v>3</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="53">
         <v>4</v>
       </c>
-      <c r="M5" s="105">
+      <c r="M5" s="97">
         <v>3.125E-2</v>
       </c>
-      <c r="N5" s="53">
+      <c r="N5" s="51">
         <v>0.05</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5" s="53">
         <v>2</v>
       </c>
-      <c r="P5" s="56">
+      <c r="P5" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="56">
         <v>4</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="47">
         <v>3.90625E-3</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="45">
         <v>2</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="46">
         <v>0.25</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="45">
         <v>3</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="46">
         <v>0.25</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="47">
         <v>6.25E-2</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="33">
         <v>2.6</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="47">
         <v>6.25E-2</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="47">
         <v>3.90625E-3</v>
       </c>
       <c r="N6" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6" s="33">
         <v>0.5</v>
       </c>
       <c r="P6" s="25">
@@ -9054,92 +11026,92 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="40">
-        <v>1</v>
-      </c>
-      <c r="D7" s="58">
+      <c r="C7" s="38">
+        <v>1</v>
+      </c>
+      <c r="D7" s="56">
         <v>8</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="33">
         <v>0.5</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>0.5</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="45">
         <v>8</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="45">
         <v>3</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="46">
         <v>0.25</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="47">
         <v>3.125E-2</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="33">
         <v>0.4</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="45">
         <v>16</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="47">
         <v>3.90625E-3</v>
       </c>
       <c r="N7" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="47">
         <v>7.8125E-3</v>
       </c>
-      <c r="P7" s="61">
+      <c r="P7" s="59">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="56">
         <v>2</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="47">
         <v>1.953125E-3</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="45">
         <v>2</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="45">
         <v>4</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="45">
         <v>2</v>
       </c>
       <c r="I8" s="15">
         <v>0.125</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="47">
         <v>3.125E-2</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="45">
         <v>2</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L8" s="45">
         <v>32</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="47">
         <v>1.5625E-2</v>
       </c>
       <c r="N8" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="33">
         <v>0.5</v>
       </c>
-      <c r="P8" s="61">
+      <c r="P8" s="59">
         <v>0.25</v>
       </c>
     </row>
@@ -9150,91 +11122,91 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="39">
-        <v>1</v>
-      </c>
-      <c r="D9" s="57">
+      <c r="C9" s="37">
+        <v>1</v>
+      </c>
+      <c r="D9" s="55">
         <v>6.25E-2</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="33">
         <v>0.5</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="45">
         <v>4</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="47">
         <v>6.25E-2</v>
       </c>
-      <c r="H9" s="47">
-        <v>1</v>
-      </c>
-      <c r="I9" s="47">
+      <c r="H9" s="45">
+        <v>1</v>
+      </c>
+      <c r="I9" s="45">
         <v>8</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="48">
         <v>3.125E-2</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="33">
         <v>2.4</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="45">
         <v>1024</v>
       </c>
-      <c r="M9" s="50">
+      <c r="M9" s="48">
         <v>7.8125E-3</v>
       </c>
       <c r="N9" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O9" s="50">
+      <c r="O9" s="48">
         <v>3.90625E-3</v>
       </c>
-      <c r="P9" s="60">
+      <c r="P9" s="58">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="55">
         <v>6.25E-2</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="47">
         <v>6.25E-2</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="45">
         <v>2</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="45">
         <v>2</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="33">
         <v>0.6</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="47">
         <v>6.25E-2</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="48">
         <v>3.90625E-3</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="33">
         <v>2.8</v>
       </c>
-      <c r="L10" s="47">
-        <v>1</v>
-      </c>
-      <c r="M10" s="50">
+      <c r="L10" s="45">
+        <v>1</v>
+      </c>
+      <c r="M10" s="48">
         <v>3.125E-2</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="33">
         <v>0.1</v>
       </c>
-      <c r="O10" s="47">
+      <c r="O10" s="45">
         <v>8</v>
       </c>
-      <c r="P10" s="61">
+      <c r="P10" s="59">
         <v>0.25</v>
       </c>
     </row>
@@ -9243,59 +11215,59 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="40">
-        <v>1</v>
-      </c>
-      <c r="D11" s="58">
-        <v>1</v>
-      </c>
-      <c r="E11" s="35">
+      <c r="C11" s="38">
+        <v>1</v>
+      </c>
+      <c r="D11" s="56">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33">
         <v>0.5</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="47">
         <v>6.25E-2</v>
       </c>
       <c r="G11" s="15">
         <v>0.125</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="33">
         <v>0.6</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="45">
         <v>32</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="45">
         <v>2</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="33">
         <v>2.6</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="45">
         <v>256</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="47">
         <v>6.25E-2</v>
       </c>
       <c r="N11" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O11" s="50">
+      <c r="O11" s="48">
         <v>3.90625E-3</v>
       </c>
-      <c r="P11" s="51">
+      <c r="P11" s="49">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="56">
         <v>4</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="47">
         <v>6.25E-2</v>
       </c>
       <c r="F12" s="15">
@@ -9304,31 +11276,31 @@
       <c r="G12" s="15">
         <v>0.125</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="33">
         <v>0.8</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="47">
         <v>6.25E-2</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="48">
         <v>3.90625E-3</v>
       </c>
-      <c r="K12" s="47">
-        <v>1</v>
-      </c>
-      <c r="L12" s="47">
+      <c r="K12" s="45">
+        <v>1</v>
+      </c>
+      <c r="L12" s="45">
         <v>256</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="48">
         <v>3.90625E-3</v>
       </c>
       <c r="N12" s="15">
         <v>0.01</v>
       </c>
-      <c r="O12" s="49">
+      <c r="O12" s="47">
         <v>6.25E-2</v>
       </c>
-      <c r="P12" s="60">
+      <c r="P12" s="58">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -9339,43 +11311,43 @@
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="37">
         <v>1</v>
       </c>
       <c r="D13" s="14">
         <v>1.953125E-3</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="33">
         <v>2</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="33">
         <v>2</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="33">
         <v>8</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="33">
         <v>2.4</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="33">
         <v>0.5</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="33">
         <v>6.25E-2</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="33">
         <v>3</v>
       </c>
       <c r="L13" s="15">
         <v>1.953125E-3</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="47">
         <v>3.125E-2</v>
       </c>
       <c r="N13" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="O13" s="50">
+      <c r="O13" s="48">
         <v>6.25E-2</v>
       </c>
       <c r="P13" s="25">
@@ -9384,46 +11356,46 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="55">
         <v>3.90625E-3</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="47">
         <v>1.5625E-2</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="45">
         <v>64</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="47">
         <v>3.90625E-3</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="33">
         <v>1</v>
       </c>
       <c r="I14" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="47">
         <v>1.5625E-2</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="33">
         <v>0.8</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="46">
         <v>1.5625E-2</v>
       </c>
       <c r="M14" s="15">
         <v>7.8125E-3</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14" s="47">
         <v>3.90625E-3</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O14" s="33">
         <v>8</v>
       </c>
-      <c r="P14" s="61">
+      <c r="P14" s="59">
         <v>0.25</v>
       </c>
     </row>
@@ -9432,89 +11404,89 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="40">
-        <v>1</v>
-      </c>
-      <c r="D15" s="58">
+      <c r="C15" s="38">
+        <v>1</v>
+      </c>
+      <c r="D15" s="56">
         <v>1024</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="33">
         <v>8</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="46">
         <v>1.5625E-2</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="46">
         <v>0.5</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="46">
         <v>2.4</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="33">
         <v>2</v>
       </c>
-      <c r="J15" s="35">
-        <v>1</v>
-      </c>
-      <c r="K15" s="35">
+      <c r="J15" s="33">
+        <v>1</v>
+      </c>
+      <c r="K15" s="33">
         <v>3</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="33">
         <v>4</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="47">
         <v>0.125</v>
       </c>
-      <c r="N15" s="49">
+      <c r="N15" s="47">
         <v>3.90625E-3</v>
       </c>
-      <c r="O15" s="47">
+      <c r="O15" s="45">
         <v>1024</v>
       </c>
-      <c r="P15" s="62">
+      <c r="P15" s="60">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="72">
         <v>16</v>
       </c>
       <c r="E16" s="15">
         <v>7.8125E-3</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="47">
         <v>6.25E-2</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="46">
         <v>1.5625E-2</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="33">
         <v>0.8</v>
       </c>
       <c r="I16" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="48">
         <v>3.90625E-3</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="33">
         <v>0.2</v>
       </c>
-      <c r="L16" s="49">
+      <c r="L16" s="47">
         <v>3.90625E-3</v>
       </c>
-      <c r="M16" s="50">
+      <c r="M16" s="48">
         <v>3.90625E-3</v>
       </c>
-      <c r="N16" s="49">
+      <c r="N16" s="47">
         <v>-9.765625E-4</v>
       </c>
-      <c r="O16" s="35">
+      <c r="O16" s="33">
         <v>8</v>
       </c>
       <c r="P16" s="25">
@@ -9528,88 +11500,88 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="40">
-        <v>1</v>
-      </c>
-      <c r="D17" s="57">
+      <c r="C17" s="38">
+        <v>1</v>
+      </c>
+      <c r="D17" s="55">
         <v>6.25E-2</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="45">
         <v>4</v>
       </c>
       <c r="F17" s="15">
         <v>0.125</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="45">
         <v>4</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="33">
         <v>2.4</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="45">
         <v>32</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="33">
         <v>0.5</v>
       </c>
-      <c r="K17" s="47">
-        <v>1</v>
-      </c>
-      <c r="L17" s="47">
+      <c r="K17" s="45">
+        <v>1</v>
+      </c>
+      <c r="L17" s="45">
         <v>512</v>
       </c>
-      <c r="M17" s="50">
+      <c r="M17" s="48">
         <v>3.90625E-3</v>
       </c>
-      <c r="N17" s="35">
+      <c r="N17" s="33">
         <v>0.1</v>
       </c>
-      <c r="O17" s="47">
-        <v>1</v>
-      </c>
-      <c r="P17" s="62">
+      <c r="O17" s="45">
+        <v>1</v>
+      </c>
+      <c r="P17" s="60">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="55">
         <v>6.25E-2</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="48">
         <v>3.90625E-3</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="45">
         <v>2</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="45">
         <v>2</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="45">
         <v>3</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="45">
         <v>8</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="48">
         <v>7.8125E-3</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="45">
         <v>2</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="45">
         <v>1024</v>
       </c>
-      <c r="M18" s="50">
+      <c r="M18" s="48">
         <v>3.90625E-3</v>
       </c>
-      <c r="N18" s="35">
+      <c r="N18" s="33">
         <v>0.1</v>
       </c>
-      <c r="O18" s="47">
+      <c r="O18" s="45">
         <v>4</v>
       </c>
       <c r="P18" s="25">
@@ -9621,92 +11593,92 @@
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="40">
-        <v>1</v>
-      </c>
-      <c r="D19" s="57">
+      <c r="C19" s="38">
+        <v>1</v>
+      </c>
+      <c r="D19" s="55">
         <v>6.25E-2</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="33">
         <v>0.5</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="45">
         <v>2</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="45">
         <v>8</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="33">
         <v>2.6</v>
       </c>
       <c r="I19" s="15">
         <v>0.125</v>
       </c>
-      <c r="J19" s="49">
+      <c r="J19" s="47">
         <v>6.25E-2</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="33">
         <v>0.4</v>
       </c>
-      <c r="L19" s="47">
+      <c r="L19" s="45">
         <v>256</v>
       </c>
-      <c r="M19" s="50">
+      <c r="M19" s="48">
         <v>3.125E-2</v>
       </c>
       <c r="N19" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O19" s="47">
-        <v>1</v>
-      </c>
-      <c r="P19" s="61">
+      <c r="O19" s="45">
+        <v>1</v>
+      </c>
+      <c r="P19" s="59">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="57">
         <v>8</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="50">
         <v>1.5625E-2</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="64">
         <v>4</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="62">
         <v>0.25</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="63">
         <v>2.8</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="50">
         <v>3.125E-2</v>
       </c>
-      <c r="J20" s="52">
+      <c r="J20" s="50">
         <v>3.125E-2</v>
       </c>
-      <c r="K20" s="65">
+      <c r="K20" s="63">
         <v>0.4</v>
       </c>
-      <c r="L20" s="66">
+      <c r="L20" s="64">
         <v>256</v>
       </c>
-      <c r="M20" s="52">
+      <c r="M20" s="50">
         <v>3.125E-2</v>
       </c>
       <c r="N20" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O20" s="63">
+      <c r="O20" s="61">
         <v>6.25E-2</v>
       </c>
-      <c r="P20" s="68">
+      <c r="P20" s="66">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -9986,61 +11958,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="101" t="s">
+      <c r="E3" s="115"/>
+      <c r="F3" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="101" t="s">
+      <c r="G3" s="115"/>
+      <c r="H3" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="101" t="s">
+      <c r="I3" s="115"/>
+      <c r="J3" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="101" t="s">
+      <c r="K3" s="115"/>
+      <c r="L3" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="101" t="s">
+      <c r="M3" s="115"/>
+      <c r="N3" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="102"/>
-      <c r="P3" s="101" t="s">
+      <c r="O3" s="115"/>
+      <c r="P3" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="101" t="s">
+      <c r="Q3" s="115"/>
+      <c r="R3" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="103"/>
+      <c r="S3" s="116"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -10052,52 +12024,52 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10111,52 +12083,52 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="44">
         <v>1.953125E-3</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="44">
         <v>1.5625E-2</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="44">
         <v>7.8125E-3</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="43" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="12">
         <v>1.953125E-3</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="43" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="12">
         <v>1.953125E-3</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="43" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="12">
         <v>-0.125</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="44">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5" s="44">
         <v>1.953125E-3</v>
       </c>
-      <c r="S5" s="45" t="s">
+      <c r="S5" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10165,52 +12137,52 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="47">
         <v>3.90625E-3</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="47">
-        <v>1</v>
-      </c>
-      <c r="G6" s="45" t="s">
+      <c r="F6" s="45">
+        <v>1</v>
+      </c>
+      <c r="G6" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="46">
         <v>0.25</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="43" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="15">
         <v>0.125</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="46">
         <v>0.25</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="45">
         <v>-8</v>
       </c>
-      <c r="O6" s="45" t="s">
+      <c r="O6" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="49">
+      <c r="P6" s="47">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="Q6" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="47">
-        <v>1</v>
-      </c>
-      <c r="S6" s="45" t="s">
+      <c r="R6" s="45">
+        <v>1</v>
+      </c>
+      <c r="S6" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10222,52 +12194,52 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="47">
         <v>1.953125E-3</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="47">
         <v>6.25E-2</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="47">
         <v>7.8125E-3</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="46">
         <v>0.25</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="47">
-        <v>1</v>
-      </c>
-      <c r="M7" s="45" t="s">
+      <c r="L7" s="45">
+        <v>1</v>
+      </c>
+      <c r="M7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="47">
         <v>-1.5625E-2</v>
       </c>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="49">
+      <c r="P7" s="47">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q7" s="45" t="s">
+      <c r="Q7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="46">
         <v>0.25</v>
       </c>
-      <c r="S7" s="45" t="s">
+      <c r="S7" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10277,52 +12249,52 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="47">
         <v>3.90625E-3</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="46">
         <v>0.25</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="45">
         <v>64</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="33">
         <v>0.5</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="33">
         <v>0.5</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="43" t="s">
         <v>29</v>
       </c>
       <c r="N8" s="15">
         <v>-0.125</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="49">
+      <c r="P8" s="47">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q8" s="45" t="s">
+      <c r="Q8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="47">
-        <v>1</v>
-      </c>
-      <c r="S8" s="45" t="s">
+      <c r="R8" s="45">
+        <v>1</v>
+      </c>
+      <c r="S8" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10336,52 +12308,52 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="46">
         <v>0.99</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>0.5</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="46">
         <v>0.99</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="46">
         <v>0.99</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="33">
         <v>0.3</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="33">
         <v>0.4</v>
       </c>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="48">
+      <c r="P9" s="46">
         <v>0.99</v>
       </c>
-      <c r="Q9" s="45" t="s">
+      <c r="Q9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9" s="33">
         <v>0.1</v>
       </c>
-      <c r="S9" s="45" t="s">
+      <c r="S9" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10390,52 +12362,52 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="46">
         <v>0.99</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>0.1</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="46">
         <v>0.99</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <v>0.3</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="46">
         <v>0.01</v>
       </c>
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="46">
         <v>0.99</v>
       </c>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="48">
+      <c r="P10" s="46">
         <v>0.99</v>
       </c>
-      <c r="Q10" s="45" t="s">
+      <c r="Q10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="48">
+      <c r="R10" s="46">
         <v>0.01</v>
       </c>
-      <c r="S10" s="45" t="s">
+      <c r="S10" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10447,52 +12419,52 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="46">
         <v>0.9</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="46">
         <v>0.9</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="46">
         <v>0.99</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="46">
         <v>0.99</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="46">
         <v>0.99</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="33">
         <v>0.7</v>
       </c>
-      <c r="O11" s="45" t="s">
+      <c r="O11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="46">
         <v>0.99</v>
       </c>
-      <c r="Q11" s="45" t="s">
+      <c r="Q11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="35">
+      <c r="R11" s="33">
         <v>0.1</v>
       </c>
-      <c r="S11" s="45" t="s">
+      <c r="S11" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10502,52 +12474,52 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="46">
         <v>0.99</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="46">
         <v>0.01</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="46">
         <v>0.99</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="33">
         <v>0.1</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="46">
         <v>0.01</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="M12" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12" s="33">
         <v>0.8</v>
       </c>
-      <c r="O12" s="45" t="s">
+      <c r="O12" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="48">
+      <c r="P12" s="46">
         <v>0.99</v>
       </c>
-      <c r="Q12" s="45" t="s">
+      <c r="Q12" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="35">
+      <c r="R12" s="33">
         <v>0.1</v>
       </c>
-      <c r="S12" s="45" t="s">
+      <c r="S12" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10570,43 +12542,43 @@
       <c r="F13" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="47">
         <v>1.66015625E-2</v>
       </c>
       <c r="H13" s="15">
         <v>7.8125E-3</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="33">
         <v>6.34765625E-2</v>
       </c>
       <c r="J13" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="33">
         <v>8.0009765625</v>
       </c>
       <c r="L13" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="33">
         <v>4.0009765625</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>7.8125E-3</v>
       </c>
-      <c r="O13" s="48">
+      <c r="O13" s="46">
         <v>8.7890625E-3</v>
       </c>
-      <c r="P13" s="49">
+      <c r="P13" s="47">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q13" s="48">
+      <c r="Q13" s="46">
         <v>1.66015625E-2</v>
       </c>
       <c r="R13" s="15">
         <v>0.5</v>
       </c>
-      <c r="S13" s="48">
+      <c r="S13" s="46">
         <v>1.66015625E-2</v>
       </c>
     </row>
@@ -10615,16 +12587,16 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="47">
         <v>3.90625E-3</v>
       </c>
       <c r="E14" s="15">
         <v>6.34765625E-2</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="46">
         <v>0.25</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="47">
         <v>0.5009765625</v>
       </c>
       <c r="H14" s="15">
@@ -10633,34 +12605,34 @@
       <c r="I14" s="15">
         <v>2.0009765625</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="47">
         <v>1.5625E-2</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="46">
         <v>32.0009765625</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="47">
         <v>1.5625E-2</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="33">
         <v>16.0009765625</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="46">
         <v>7.8125E-3</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O14" s="33">
         <v>128.0009765625</v>
       </c>
       <c r="P14" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q14" s="49">
+      <c r="Q14" s="47">
         <v>0.5009765625</v>
       </c>
       <c r="R14" s="15">
         <v>1.953125E-3</v>
       </c>
-      <c r="S14" s="47">
+      <c r="S14" s="45">
         <v>64.0009765625</v>
       </c>
     </row>
@@ -10672,49 +12644,49 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="47">
         <v>6.25E-2</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="33">
         <v>16.0009765625</v>
       </c>
       <c r="F15" s="15">
         <v>1.953125E-3</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="33">
         <v>8.0009765625</v>
       </c>
       <c r="H15" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="46">
         <v>8.7890625E-3</v>
       </c>
       <c r="J15" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="46">
         <v>0.2509765625</v>
       </c>
       <c r="L15" s="15">
         <v>0.125</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="33">
         <v>1.0009765625</v>
       </c>
       <c r="N15" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="O15" s="48">
+      <c r="O15" s="46">
         <v>3.22265625E-2</v>
       </c>
       <c r="P15" s="15">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="Q15" s="45">
         <v>1.0009765625</v>
       </c>
-      <c r="R15" s="49">
+      <c r="R15" s="47">
         <v>3.90625E-3</v>
       </c>
       <c r="S15" s="15">
@@ -10733,46 +12705,46 @@
       <c r="E16" s="15">
         <v>1.66015625E-2</v>
       </c>
-      <c r="F16" s="48">
-        <v>1</v>
-      </c>
-      <c r="G16" s="35">
+      <c r="F16" s="46">
+        <v>1</v>
+      </c>
+      <c r="G16" s="33">
         <v>0.1259765625</v>
       </c>
       <c r="H16" s="15">
         <v>7.8125E-3</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="45">
         <v>8.0009765625</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16" s="47">
         <v>3.125E-2</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="45">
         <v>1024.0009765625</v>
       </c>
       <c r="L16" s="15">
         <v>7.8125E-3</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="33">
         <v>4.0009765625</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="46">
         <v>0.25</v>
       </c>
-      <c r="O16" s="35">
+      <c r="O16" s="33">
         <v>0.1259765625</v>
       </c>
       <c r="P16" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q16" s="47">
+      <c r="Q16" s="45">
         <v>8.0009765625</v>
       </c>
       <c r="R16" s="15">
         <v>1.5625E-2</v>
       </c>
-      <c r="S16" s="35">
+      <c r="S16" s="33">
         <v>2.0009765625</v>
       </c>
     </row>
@@ -10786,52 +12758,52 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="45">
         <v>16</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="45">
         <v>1024.0009765625</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="45">
         <v>16</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="45">
         <v>256.0009765625</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="47">
         <v>7.8125E-3</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="45">
         <v>64.0009765625</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="47">
         <v>1.5625E-2</v>
       </c>
-      <c r="K17" s="49">
+      <c r="K17" s="47">
         <v>6.34765625E-2</v>
       </c>
       <c r="L17" s="15">
         <v>0.125</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="33">
         <v>0.5009765625</v>
       </c>
-      <c r="N17" s="47">
+      <c r="N17" s="45">
         <v>-128</v>
       </c>
       <c r="O17" s="15">
         <v>-9.765625E-4</v>
       </c>
-      <c r="P17" s="49">
+      <c r="P17" s="47">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q17" s="47">
+      <c r="Q17" s="45">
         <v>8.0009765625</v>
       </c>
-      <c r="R17" s="47">
+      <c r="R17" s="45">
         <v>8</v>
       </c>
-      <c r="S17" s="47">
+      <c r="S17" s="45">
         <v>128.0009765625</v>
       </c>
     </row>
@@ -10840,37 +12812,37 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="45">
         <v>16</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="45">
         <v>128.0009765625</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="47">
         <v>1.5625E-2</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="33">
         <v>0.5009765625</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="47">
         <v>7.8125E-3</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="45">
         <v>2.0009765625</v>
       </c>
-      <c r="J18" s="47">
-        <v>1</v>
-      </c>
-      <c r="K18" s="47">
+      <c r="J18" s="45">
+        <v>1</v>
+      </c>
+      <c r="K18" s="45">
         <v>256.0009765625</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="47">
         <v>1.953125E-3</v>
       </c>
       <c r="M18" s="15">
         <v>0.1259765625</v>
       </c>
-      <c r="N18" s="49">
+      <c r="N18" s="47">
         <v>-64</v>
       </c>
       <c r="O18" s="15">
@@ -10879,13 +12851,13 @@
       <c r="P18" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q18" s="47">
+      <c r="Q18" s="45">
         <v>32.0009765625</v>
       </c>
-      <c r="R18" s="49">
+      <c r="R18" s="47">
         <v>1.953125E-3</v>
       </c>
-      <c r="S18" s="47">
+      <c r="S18" s="45">
         <v>16.0009765625</v>
       </c>
     </row>
@@ -10897,49 +12869,49 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="47">
         <v>6.25E-2</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="45">
         <v>32.0009765625</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="46">
         <v>0.25</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="45">
         <v>64.0009765625</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="47">
         <v>1.953125E-3</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="47">
         <v>3.22265625E-2</v>
       </c>
-      <c r="J19" s="49">
+      <c r="J19" s="47">
         <v>3.125E-2</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K19" s="45">
         <v>32.0009765625</v>
       </c>
-      <c r="L19" s="49">
+      <c r="L19" s="47">
         <v>1.5625E-2</v>
       </c>
-      <c r="M19" s="47">
+      <c r="M19" s="45">
         <v>16.0009765625</v>
       </c>
-      <c r="N19" s="48">
+      <c r="N19" s="46">
         <v>-0.25</v>
       </c>
-      <c r="O19" s="47">
+      <c r="O19" s="45">
         <v>32.0009765625</v>
       </c>
-      <c r="P19" s="49">
+      <c r="P19" s="47">
         <v>7.8125E-3</v>
       </c>
-      <c r="Q19" s="47">
+      <c r="Q19" s="45">
         <v>8.0009765625</v>
       </c>
-      <c r="R19" s="49">
+      <c r="R19" s="47">
         <v>3.125E-2</v>
       </c>
       <c r="S19" s="15">
@@ -10952,40 +12924,40 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="47">
         <v>1.5625E-2</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="45">
         <v>32.0009765625</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="47">
         <v>1.953125E-3</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="47">
         <v>4.8828125E-3</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="47">
         <v>7.8125E-3</v>
       </c>
       <c r="I20" s="15">
         <v>0.5009765625</v>
       </c>
-      <c r="J20" s="49">
+      <c r="J20" s="47">
         <v>3.125E-2</v>
       </c>
-      <c r="K20" s="49">
+      <c r="K20" s="47">
         <v>6.34765625E-2</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="47">
         <v>1.5625E-2</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="45">
         <v>1.0009765625</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="45">
         <v>4</v>
       </c>
-      <c r="O20" s="47">
+      <c r="O20" s="45">
         <v>8.0009765625</v>
       </c>
       <c r="P20" s="15">
@@ -10994,7 +12966,7 @@
       <c r="Q20" s="15">
         <v>0.5009765625</v>
       </c>
-      <c r="R20" s="49">
+      <c r="R20" s="47">
         <v>1.953125E-3</v>
       </c>
       <c r="S20" s="15">
